--- a/GOOGL/GOOGL.xlsx
+++ b/GOOGL/GOOGL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/534a1defcf7f9d1a/Company Models CloudSave/GOOGL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1966" documentId="11_1AD6A205C5E9E5C035BC244CCF7BE857DA3673D9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{297B95B2-7D26-4378-A25F-025363E6A2D9}"/>
+  <xr:revisionPtr revIDLastSave="2239" documentId="11_1AD6A205C5E9E5C035BC244CCF7BE857DA3673D9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E09825AC-746D-47FA-AFD7-E1F3185AD127}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1240" windowWidth="34080" windowHeight="19020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3066" uniqueCount="1882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3089" uniqueCount="1893">
   <si>
     <t xml:space="preserve">Price </t>
   </si>
@@ -5779,6 +5779,39 @@
   </si>
   <si>
     <t>Current Price</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
+    <t>Fiscal Year</t>
+  </si>
+  <si>
+    <t>Mix</t>
+  </si>
+  <si>
+    <t>Total Mix %</t>
+  </si>
+  <si>
+    <t>Geographic *in millions, USD</t>
+  </si>
+  <si>
+    <t>Segments *in millions, USD</t>
+  </si>
+  <si>
+    <t>Google Services</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q3</t>
   </si>
 </sst>
 </file>
@@ -5790,7 +5823,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5886,6 +5919,16 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -6060,7 +6103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -6160,8 +6203,14 @@
     <xf numFmtId="3" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6212,15 +6261,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>739913</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>27609</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>32736</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>72571</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6399,9 +6448,11 @@
     <v>4</v>
     <v>191.75</v>
     <v>120.20569999999999</v>
-    <v>1.0530999999999999</v>
-    <v>-0.28000000000000003</v>
-    <v>-1.6739999999999999E-3</v>
+    <v>1.0441</v>
+    <v>-1.07</v>
+    <v>1.6080000000000001E-3</v>
+    <v>-6.5700000000000003E-3</v>
+    <v>0.26019999999999999</v>
     <v>USD</v>
     <v>Alphabet Inc. is a holding company. The Company's segments include Google Services, Google Cloud, and Other Bets. The Google Services segment includes products and services such as ads, Android, Chrome, devices, Google Maps, Google Play, Search, and YouTube. The Google Cloud segment includes infrastructure and platform services, collaboration tools, and other services for enterprise customers. Its Other Bets segment is engaged in the sale of healthcare-related services and Internet services. Its Google Cloud provides enterprise-ready cloud services, including Google Cloud Platform and Google Workspace. Google Cloud Platform provides access to solutions such as cybersecurity, databases, analytics, and artificial intelligence (AI) offerings, including its AI infrastructure, Vertex AI platform, and Duet AI for Google Cloud. Google Workspace includes cloud-based communication and collaboration tools for enterprises, such as Calendar, Gmail, Docs, Drive, Meet and other enterprise services.</v>
     <v>179582</v>
@@ -6409,24 +6460,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1600 Amphitheatre Parkway, MOUNTAIN VIEW, CA, 94043 US</v>
-    <v>168.09</v>
+    <v>165.97</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45499.999991978904</v>
+    <v>45533.903709941405</v>
     <v>3</v>
-    <v>164.06</v>
-    <v>2065153000000</v>
+    <v>160.25</v>
+    <v>2013899000000</v>
     <v>ALPHABET INC.</v>
     <v>ALPHABET INC.</v>
-    <v>167.15</v>
-    <v>23.959499999999998</v>
-    <v>167.28</v>
-    <v>167</v>
+    <v>164.31</v>
+    <v>23.210599999999999</v>
+    <v>162.85</v>
+    <v>161.78</v>
+    <v>162.0402</v>
     <v>12310000000</v>
     <v>GOOGL</v>
     <v>ALPHABET INC. (XNAS:GOOGL)</v>
-    <v>37271</v>
-    <v>24317986</v>
+    <v>19659786</v>
+    <v>26403497</v>
     <v>2015</v>
   </rv>
   <rv s="4">
@@ -6466,7 +6518,9 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -6487,6 +6541,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -6503,7 +6558,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -6514,13 +6569,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -6586,13 +6644,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -6637,6 +6701,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -6644,6 +6711,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -24872,3016 +24942,8080 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A4B24D-9610-4593-A485-600A658C62C4}">
-  <dimension ref="B1:CH64"/>
+  <dimension ref="B1:DL83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="O6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="L17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AD63" sqref="AD63"/>
+      <selection pane="bottomRight" activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6.90625" customWidth="1"/>
     <col min="2" max="2" width="20.26953125" customWidth="1"/>
-    <col min="30" max="30" width="13" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:86" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:116" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="2" spans="2:116" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="3" spans="2:116" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
         <v>1861</v>
       </c>
-      <c r="L1">
-        <f>M1-1</f>
+      <c r="AC3" t="s">
+        <v>1890</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>1889</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>1892</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>1891</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>1890</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>1889</v>
+      </c>
+      <c r="AP3">
+        <f>AQ3-1</f>
         <v>2013</v>
       </c>
-      <c r="M1">
-        <f>N1-1</f>
+      <c r="AQ3">
+        <f>AR3-1</f>
         <v>2014</v>
       </c>
-      <c r="N1">
-        <f>O1-1</f>
+      <c r="AR3">
+        <f>AS3-1</f>
         <v>2015</v>
       </c>
-      <c r="O1">
-        <f t="shared" ref="O1:T1" si="0">P1-1</f>
+      <c r="AS3">
+        <f t="shared" ref="AS3:AX3" si="0">AT3-1</f>
         <v>2016</v>
       </c>
-      <c r="P1">
+      <c r="AT3">
         <f t="shared" si="0"/>
         <v>2017</v>
       </c>
-      <c r="Q1">
+      <c r="AU3">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="R1">
+      <c r="AV3">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="S1">
+      <c r="AW3">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="T1">
+      <c r="AX3">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="U1">
-        <f>V1-1</f>
+      <c r="AY3">
+        <f>AZ3-1</f>
         <v>2022</v>
       </c>
-      <c r="V1">
+      <c r="AZ3">
         <v>2023</v>
       </c>
-      <c r="W1">
-        <f>V1+1</f>
+      <c r="BA3">
+        <f>AZ3+1</f>
         <v>2024</v>
       </c>
-      <c r="X1">
-        <f t="shared" ref="X1:CH1" si="1">W1+1</f>
+      <c r="BB3">
+        <f t="shared" ref="BB3:DL3" si="1">BA3+1</f>
         <v>2025</v>
       </c>
-      <c r="Y1">
+      <c r="BC3">
         <f t="shared" si="1"/>
         <v>2026</v>
       </c>
-      <c r="Z1">
+      <c r="BD3">
         <f t="shared" si="1"/>
         <v>2027</v>
       </c>
-      <c r="AA1">
+      <c r="BE3">
         <f t="shared" si="1"/>
         <v>2028</v>
       </c>
-      <c r="AB1">
+      <c r="BF3">
         <f t="shared" si="1"/>
         <v>2029</v>
       </c>
-      <c r="AC1">
+      <c r="BG3">
         <f t="shared" si="1"/>
         <v>2030</v>
       </c>
-      <c r="AD1">
+      <c r="BH3">
         <f t="shared" si="1"/>
         <v>2031</v>
       </c>
-      <c r="AE1">
+      <c r="BI3">
         <f t="shared" si="1"/>
         <v>2032</v>
       </c>
-      <c r="AF1">
+      <c r="BJ3">
         <f t="shared" si="1"/>
         <v>2033</v>
       </c>
-      <c r="AG1">
+      <c r="BK3">
         <f t="shared" si="1"/>
         <v>2034</v>
       </c>
-      <c r="AH1">
+      <c r="BL3">
         <f t="shared" si="1"/>
         <v>2035</v>
       </c>
-      <c r="AI1">
+      <c r="BM3">
         <f t="shared" si="1"/>
         <v>2036</v>
       </c>
-      <c r="AJ1">
+      <c r="BN3">
         <f t="shared" si="1"/>
         <v>2037</v>
       </c>
-      <c r="AK1">
+      <c r="BO3">
         <f t="shared" si="1"/>
         <v>2038</v>
       </c>
-      <c r="AL1">
+      <c r="BP3">
         <f t="shared" si="1"/>
         <v>2039</v>
       </c>
-      <c r="AM1">
+      <c r="BQ3">
         <f t="shared" si="1"/>
         <v>2040</v>
       </c>
-      <c r="AN1">
+      <c r="BR3">
         <f t="shared" si="1"/>
         <v>2041</v>
       </c>
-      <c r="AO1">
+      <c r="BS3">
         <f t="shared" si="1"/>
         <v>2042</v>
       </c>
-      <c r="AP1">
+      <c r="BT3">
         <f t="shared" si="1"/>
         <v>2043</v>
       </c>
-      <c r="AQ1">
+      <c r="BU3">
         <f t="shared" si="1"/>
         <v>2044</v>
       </c>
-      <c r="AR1">
+      <c r="BV3">
         <f t="shared" si="1"/>
         <v>2045</v>
       </c>
-      <c r="AS1">
+      <c r="BW3">
         <f t="shared" si="1"/>
         <v>2046</v>
       </c>
-      <c r="AT1">
+      <c r="BX3">
         <f t="shared" si="1"/>
         <v>2047</v>
       </c>
-      <c r="AU1">
+      <c r="BY3">
         <f t="shared" si="1"/>
         <v>2048</v>
       </c>
-      <c r="AV1">
+      <c r="BZ3">
         <f t="shared" si="1"/>
         <v>2049</v>
       </c>
-      <c r="AW1">
+      <c r="CA3">
         <f t="shared" si="1"/>
         <v>2050</v>
       </c>
-      <c r="AX1">
+      <c r="CB3">
         <f t="shared" si="1"/>
         <v>2051</v>
       </c>
-      <c r="AY1">
+      <c r="CC3">
         <f t="shared" si="1"/>
         <v>2052</v>
       </c>
-      <c r="AZ1">
+      <c r="CD3">
         <f t="shared" si="1"/>
         <v>2053</v>
       </c>
-      <c r="BA1">
+      <c r="CE3">
         <f t="shared" si="1"/>
         <v>2054</v>
       </c>
-      <c r="BB1">
+      <c r="CF3">
         <f t="shared" si="1"/>
         <v>2055</v>
       </c>
-      <c r="BC1">
+      <c r="CG3">
         <f t="shared" si="1"/>
         <v>2056</v>
       </c>
-      <c r="BD1">
+      <c r="CH3">
         <f t="shared" si="1"/>
         <v>2057</v>
       </c>
-      <c r="BE1">
+      <c r="CI3">
         <f t="shared" si="1"/>
         <v>2058</v>
       </c>
-      <c r="BF1">
+      <c r="CJ3">
         <f t="shared" si="1"/>
         <v>2059</v>
       </c>
-      <c r="BG1">
+      <c r="CK3">
         <f t="shared" si="1"/>
         <v>2060</v>
       </c>
-      <c r="BH1">
+      <c r="CL3">
         <f t="shared" si="1"/>
         <v>2061</v>
       </c>
-      <c r="BI1">
+      <c r="CM3">
         <f t="shared" si="1"/>
         <v>2062</v>
       </c>
-      <c r="BJ1">
+      <c r="CN3">
         <f t="shared" si="1"/>
         <v>2063</v>
       </c>
-      <c r="BK1">
+      <c r="CO3">
         <f t="shared" si="1"/>
         <v>2064</v>
       </c>
-      <c r="BL1">
+      <c r="CP3">
         <f t="shared" si="1"/>
         <v>2065</v>
       </c>
-      <c r="BM1">
+      <c r="CQ3">
         <f t="shared" si="1"/>
         <v>2066</v>
       </c>
-      <c r="BN1">
+      <c r="CR3">
         <f t="shared" si="1"/>
         <v>2067</v>
       </c>
-      <c r="BO1">
+      <c r="CS3">
         <f t="shared" si="1"/>
         <v>2068</v>
       </c>
-      <c r="BP1">
+      <c r="CT3">
         <f t="shared" si="1"/>
         <v>2069</v>
       </c>
-      <c r="BQ1">
+      <c r="CU3">
         <f t="shared" si="1"/>
         <v>2070</v>
       </c>
-      <c r="BR1">
+      <c r="CV3">
         <f t="shared" si="1"/>
         <v>2071</v>
       </c>
-      <c r="BS1">
+      <c r="CW3">
         <f t="shared" si="1"/>
         <v>2072</v>
       </c>
-      <c r="BT1">
+      <c r="CX3">
         <f t="shared" si="1"/>
         <v>2073</v>
       </c>
-      <c r="BU1">
+      <c r="CY3">
         <f t="shared" si="1"/>
         <v>2074</v>
       </c>
-      <c r="BV1">
+      <c r="CZ3">
         <f t="shared" si="1"/>
         <v>2075</v>
       </c>
-      <c r="BW1">
+      <c r="DA3">
         <f t="shared" si="1"/>
         <v>2076</v>
       </c>
-      <c r="BX1">
+      <c r="DB3">
         <f t="shared" si="1"/>
         <v>2077</v>
       </c>
-      <c r="BY1">
+      <c r="DC3">
         <f t="shared" si="1"/>
         <v>2078</v>
       </c>
-      <c r="BZ1">
+      <c r="DD3">
         <f t="shared" si="1"/>
         <v>2079</v>
       </c>
-      <c r="CA1">
+      <c r="DE3">
         <f t="shared" si="1"/>
         <v>2080</v>
       </c>
-      <c r="CB1">
+      <c r="DF3">
         <f t="shared" si="1"/>
         <v>2081</v>
       </c>
-      <c r="CC1">
+      <c r="DG3">
         <f t="shared" si="1"/>
         <v>2082</v>
       </c>
-      <c r="CD1">
+      <c r="DH3">
         <f t="shared" si="1"/>
         <v>2083</v>
       </c>
-      <c r="CE1">
+      <c r="DI3">
         <f t="shared" si="1"/>
         <v>2084</v>
       </c>
-      <c r="CF1">
+      <c r="DJ3">
         <f t="shared" si="1"/>
         <v>2085</v>
       </c>
-      <c r="CG1">
+      <c r="DK3">
         <f t="shared" si="1"/>
         <v>2086</v>
       </c>
-      <c r="CH1">
+      <c r="DL3">
         <f t="shared" si="1"/>
         <v>2087</v>
       </c>
     </row>
-    <row r="2" spans="2:86" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+    <row r="4" spans="2:116" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
         <v>1862</v>
       </c>
-      <c r="N2" s="19">
+      <c r="Q4" s="19">
+        <v>43950</v>
+      </c>
+      <c r="R4" s="19">
+        <v>44043</v>
+      </c>
+      <c r="S4" s="19">
+        <v>44134</v>
+      </c>
+      <c r="U4" s="19">
+        <v>44314</v>
+      </c>
+      <c r="V4" s="19">
+        <v>44405</v>
+      </c>
+      <c r="W4" s="19">
+        <v>44496</v>
+      </c>
+      <c r="Y4" s="19">
+        <v>44678</v>
+      </c>
+      <c r="Z4" s="19">
+        <v>44769</v>
+      </c>
+      <c r="AA4" s="19">
+        <v>44860</v>
+      </c>
+      <c r="AC4" s="19">
+        <v>45042</v>
+      </c>
+      <c r="AD4" s="19">
+        <v>45133</v>
+      </c>
+      <c r="AE4" s="19">
+        <v>45224</v>
+      </c>
+      <c r="AG4" s="19">
+        <v>45408</v>
+      </c>
+      <c r="AH4" s="19">
+        <v>45497</v>
+      </c>
+      <c r="AR4" s="19">
         <v>42411</v>
       </c>
-      <c r="O2" s="19">
+      <c r="AS4" s="19">
         <v>42769</v>
       </c>
-      <c r="P2" s="19">
+      <c r="AT4" s="19">
         <v>43137</v>
       </c>
-      <c r="Q2" s="19">
+      <c r="AU4" s="19">
         <v>43501</v>
       </c>
-      <c r="R2" s="19">
+      <c r="AV4" s="19">
         <v>43865</v>
       </c>
-      <c r="S2" s="19">
+      <c r="AW4" s="19">
         <v>44230</v>
       </c>
-      <c r="T2" s="19">
+      <c r="AX4" s="19">
         <v>44594</v>
       </c>
-      <c r="U2" s="19">
+      <c r="AY4" s="19">
         <v>44960</v>
       </c>
-      <c r="V2" s="19">
+      <c r="AZ4" s="19">
         <v>45322</v>
       </c>
     </row>
-    <row r="3" spans="2:86" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
+    <row r="5" spans="2:116" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
         <v>1863</v>
       </c>
-      <c r="N3" s="19">
-        <f>DATE(YEAR(O3)-1, MONTH(O3), DAY(O3))</f>
+      <c r="Y5" s="19">
+        <v>44651</v>
+      </c>
+      <c r="Z5" s="19">
+        <v>44742</v>
+      </c>
+      <c r="AA5" s="19">
+        <v>44834</v>
+      </c>
+      <c r="AC5" s="19">
+        <v>45016</v>
+      </c>
+      <c r="AD5" s="19">
+        <v>45107</v>
+      </c>
+      <c r="AE5" s="19">
+        <v>45199</v>
+      </c>
+      <c r="AG5" s="19">
+        <v>45382</v>
+      </c>
+      <c r="AH5" s="19">
+        <v>45473</v>
+      </c>
+      <c r="AR5" s="19">
+        <f t="shared" ref="AR5:AY5" si="2">DATE(YEAR(AS5)-1, MONTH(AS5), DAY(AS5))</f>
         <v>42369</v>
       </c>
-      <c r="O3" s="19">
-        <f>DATE(YEAR(P3)-1, MONTH(P3), DAY(P3))</f>
+      <c r="AS5" s="19">
+        <f t="shared" si="2"/>
         <v>42735</v>
       </c>
-      <c r="P3" s="19">
-        <f>DATE(YEAR(Q3)-1, MONTH(Q3), DAY(Q3))</f>
+      <c r="AT5" s="19">
+        <f t="shared" si="2"/>
         <v>43100</v>
       </c>
-      <c r="Q3" s="19">
-        <f>DATE(YEAR(R3)-1, MONTH(R3), DAY(R3))</f>
+      <c r="AU5" s="19">
+        <f t="shared" si="2"/>
         <v>43465</v>
       </c>
-      <c r="R3" s="19">
-        <f>DATE(YEAR(S3)-1, MONTH(S3), DAY(S3))</f>
+      <c r="AV5" s="19">
+        <f t="shared" si="2"/>
         <v>43830</v>
       </c>
-      <c r="S3" s="19">
-        <f>DATE(YEAR(T3)-1, MONTH(T3), DAY(T3))</f>
+      <c r="AW5" s="19">
+        <f t="shared" si="2"/>
         <v>44196</v>
       </c>
-      <c r="T3" s="19">
-        <f>DATE(YEAR(U3)-1, MONTH(U3), DAY(U3))</f>
+      <c r="AX5" s="19">
+        <f t="shared" si="2"/>
         <v>44561</v>
       </c>
-      <c r="U3" s="19">
-        <f>DATE(YEAR(V3)-1, MONTH(V3), DAY(V3))</f>
+      <c r="AY5" s="19">
+        <f t="shared" si="2"/>
         <v>44926</v>
       </c>
-      <c r="V3" s="19">
+      <c r="AZ5" s="19">
         <v>45291</v>
       </c>
     </row>
-    <row r="7" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="3" t="s">
+    <row r="11" spans="2:116" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="39" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="12" spans="2:116" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="3" t="s">
         <v>1865</v>
       </c>
-      <c r="M7" s="3">
+      <c r="AA12" s="3">
+        <v>39539</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>40359</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>42628</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>44026</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>46156</v>
+      </c>
+      <c r="AH12" s="3">
+        <v>48509</v>
+      </c>
+      <c r="AQ12" s="3">
         <v>45085</v>
       </c>
-      <c r="N7" s="3">
+      <c r="AR12" s="3">
         <v>52357</v>
       </c>
-      <c r="O7" s="3">
+      <c r="AS12" s="3">
         <v>63785</v>
       </c>
-      <c r="P7" s="3">
+      <c r="AT12" s="3">
         <v>69811</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="AU12" s="3">
         <v>85296</v>
       </c>
-      <c r="R7" s="3">
+      <c r="AV12" s="3">
         <v>98115</v>
       </c>
-      <c r="S7" s="3">
+      <c r="AW12" s="3">
         <v>104062</v>
       </c>
-      <c r="T7" s="3">
+      <c r="AX12" s="3">
         <v>148951</v>
       </c>
-      <c r="U7" s="3">
+      <c r="AY12" s="3">
         <v>162450</v>
       </c>
-      <c r="V7" s="3">
+      <c r="AZ12" s="3">
         <v>175033</v>
       </c>
     </row>
-    <row r="8" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="3" t="s">
+    <row r="13" spans="2:116" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="3" t="s">
         <v>1866</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="AA13" s="3">
+        <v>7071</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>6693</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>7665</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>7952</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>8090</v>
+      </c>
+      <c r="AH13" s="3">
+        <v>8663</v>
+      </c>
+      <c r="AQ13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="3">
         <v>8150</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="AU13" s="3">
         <v>11155</v>
       </c>
-      <c r="R8" s="3">
+      <c r="AV13" s="3">
         <v>15149</v>
       </c>
-      <c r="S8" s="3">
+      <c r="AW13" s="3">
         <v>19772</v>
       </c>
-      <c r="T8" s="3">
+      <c r="AX13" s="3">
         <v>28845</v>
       </c>
-      <c r="U8" s="3">
+      <c r="AY13" s="3">
         <v>29243</v>
       </c>
-      <c r="V8" s="3">
+      <c r="AZ13" s="3">
         <v>31510</v>
       </c>
     </row>
-    <row r="9" spans="2:86" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="17" t="s">
+    <row r="14" spans="2:116" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="17">
+      <c r="AA14" s="17">
+        <v>7872</v>
+      </c>
+      <c r="AC14" s="17">
+        <v>7496</v>
+      </c>
+      <c r="AD14" s="17">
+        <v>7850</v>
+      </c>
+      <c r="AE14" s="17">
+        <v>7669</v>
+      </c>
+      <c r="AG14" s="17">
+        <v>7413</v>
+      </c>
+      <c r="AH14" s="17">
+        <v>7444</v>
+      </c>
+      <c r="AQ14" s="17">
         <v>14539</v>
       </c>
-      <c r="N9" s="17">
+      <c r="AR14" s="17">
         <v>15033</v>
       </c>
-      <c r="O9" s="17">
+      <c r="AS14" s="17">
         <v>15598</v>
       </c>
-      <c r="P9" s="17">
+      <c r="AT14" s="17">
         <v>17616</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="AU14" s="17">
         <v>20010</v>
       </c>
-      <c r="R9" s="17">
+      <c r="AV14" s="17">
         <v>21547</v>
       </c>
-      <c r="S9" s="17">
+      <c r="AW14" s="17">
         <v>23090</v>
       </c>
-      <c r="T9" s="17">
+      <c r="AX14" s="17">
         <v>31701</v>
       </c>
-      <c r="U9" s="17">
+      <c r="AY14" s="17">
         <v>32780</v>
       </c>
-      <c r="V9" s="17">
+      <c r="AZ14" s="17">
         <v>31312</v>
       </c>
     </row>
-    <row r="10" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="3" t="s">
+    <row r="15" spans="2:116" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="3">
-        <f>SUM(K7:K9)</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <f t="shared" ref="L10:AB10" si="2">SUM(L7:L9)</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <f t="shared" si="2"/>
+      <c r="E15" s="3">
+        <f>SUM(E12:E14)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" ref="F15:P15" si="3">SUM(F12:F14)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <f>SUM(Q12:Q14)</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <f t="shared" ref="R15:AK15" si="4">SUM(R12:R14)</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <f t="shared" si="4"/>
+        <v>54482</v>
+      </c>
+      <c r="AB15" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <f t="shared" si="4"/>
+        <v>54548</v>
+      </c>
+      <c r="AD15" s="3">
+        <f t="shared" si="4"/>
+        <v>58143</v>
+      </c>
+      <c r="AE15" s="3">
+        <f t="shared" si="4"/>
+        <v>59647</v>
+      </c>
+      <c r="AF15" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="3">
+        <f t="shared" si="4"/>
+        <v>61659</v>
+      </c>
+      <c r="AH15" s="3">
+        <f t="shared" si="4"/>
+        <v>64616</v>
+      </c>
+      <c r="AI15" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AO15" s="3">
+        <f>SUM(AO12:AO14)</f>
+        <v>0</v>
+      </c>
+      <c r="AP15" s="3">
+        <f t="shared" ref="AP15:BF15" si="5">SUM(AP12:AP14)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="3">
+        <f t="shared" si="5"/>
         <v>59624</v>
       </c>
-      <c r="N10" s="3">
-        <f t="shared" si="2"/>
+      <c r="AR15" s="3">
+        <f t="shared" si="5"/>
         <v>67390</v>
       </c>
-      <c r="O10" s="3">
-        <f t="shared" si="2"/>
+      <c r="AS15" s="3">
+        <f t="shared" si="5"/>
         <v>79383</v>
       </c>
-      <c r="P10" s="3">
-        <f t="shared" si="2"/>
+      <c r="AT15" s="3">
+        <f t="shared" si="5"/>
         <v>95577</v>
       </c>
-      <c r="Q10" s="3">
-        <f t="shared" si="2"/>
+      <c r="AU15" s="3">
+        <f t="shared" si="5"/>
         <v>116461</v>
       </c>
-      <c r="R10" s="3">
-        <f t="shared" si="2"/>
+      <c r="AV15" s="3">
+        <f t="shared" si="5"/>
         <v>134811</v>
       </c>
-      <c r="S10" s="3">
-        <f t="shared" si="2"/>
+      <c r="AW15" s="3">
+        <f t="shared" si="5"/>
         <v>146924</v>
       </c>
-      <c r="T10" s="3">
-        <f t="shared" si="2"/>
+      <c r="AX15" s="3">
+        <f t="shared" si="5"/>
         <v>209497</v>
       </c>
-      <c r="U10" s="3">
-        <f t="shared" si="2"/>
+      <c r="AY15" s="3">
+        <f t="shared" si="5"/>
         <v>224473</v>
       </c>
-      <c r="V10" s="3">
-        <f t="shared" si="2"/>
+      <c r="AZ15" s="3">
+        <f t="shared" si="5"/>
         <v>237855</v>
       </c>
-      <c r="W10" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X10" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z10" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA10" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB10" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:86" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="17" t="s">
+      <c r="BA15" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BB15" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BC15" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BD15" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BE15" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BF15" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:116" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="17" t="s">
         <v>1854</v>
       </c>
-      <c r="M11" s="17">
+      <c r="AA16" s="17">
+        <v>6895</v>
+      </c>
+      <c r="AC16" s="17">
+        <v>7413</v>
+      </c>
+      <c r="AD16" s="17">
+        <v>8142</v>
+      </c>
+      <c r="AE16" s="17">
+        <v>8339</v>
+      </c>
+      <c r="AG16" s="17">
+        <v>8739</v>
+      </c>
+      <c r="AH16" s="17">
+        <v>9312</v>
+      </c>
+      <c r="AQ16" s="17">
         <v>6050</v>
       </c>
-      <c r="N11" s="17">
+      <c r="AR16" s="17">
         <v>7154</v>
       </c>
-      <c r="O11" s="17">
+      <c r="AS16" s="17">
         <v>10080</v>
       </c>
-      <c r="P11" s="17">
+      <c r="AT16" s="17">
         <v>10914</v>
       </c>
-      <c r="Q11" s="17">
+      <c r="AU16" s="17">
         <v>14063</v>
       </c>
-      <c r="R11" s="17">
+      <c r="AV16" s="17">
         <v>17014</v>
       </c>
-      <c r="S11" s="17">
+      <c r="AW16" s="17">
         <v>21711</v>
       </c>
-      <c r="T11" s="17">
+      <c r="AX16" s="17">
         <v>28032</v>
       </c>
-      <c r="U11" s="17">
+      <c r="AY16" s="17">
         <v>29055</v>
       </c>
-      <c r="V11" s="17">
+      <c r="AZ16" s="17">
         <v>34688</v>
       </c>
     </row>
-    <row r="12" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="3" t="s">
+    <row r="17" spans="2:58" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="3" t="s">
         <v>1867</v>
       </c>
-      <c r="K12" s="3">
-        <f>SUM(K10:K11)</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <f t="shared" ref="L12:AB12" si="3">SUM(L10:L11)</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
-        <f t="shared" si="3"/>
+      <c r="E17" s="3">
+        <f>SUM(E15:E16)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" ref="F17:P17" si="6">SUM(F15:F16)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <f>SUM(Q15:Q16)</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <f t="shared" ref="R17:AK17" si="7">SUM(R15:R16)</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
+        <f t="shared" si="7"/>
+        <v>61377</v>
+      </c>
+      <c r="AB17" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="3">
+        <f t="shared" si="7"/>
+        <v>61961</v>
+      </c>
+      <c r="AD17" s="3">
+        <f t="shared" si="7"/>
+        <v>66285</v>
+      </c>
+      <c r="AE17" s="3">
+        <f t="shared" si="7"/>
+        <v>67986</v>
+      </c>
+      <c r="AF17" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="3">
+        <f t="shared" si="7"/>
+        <v>70398</v>
+      </c>
+      <c r="AH17" s="3">
+        <f t="shared" si="7"/>
+        <v>73928</v>
+      </c>
+      <c r="AI17" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK17" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO17" s="3">
+        <f>SUM(AO15:AO16)</f>
+        <v>0</v>
+      </c>
+      <c r="AP17" s="3">
+        <f t="shared" ref="AP17:BF17" si="8">SUM(AP15:AP16)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="3">
+        <f t="shared" si="8"/>
         <v>65674</v>
       </c>
-      <c r="N12" s="3">
-        <f t="shared" si="3"/>
+      <c r="AR17" s="3">
+        <f t="shared" si="8"/>
         <v>74544</v>
       </c>
-      <c r="O12" s="3">
-        <f t="shared" si="3"/>
+      <c r="AS17" s="3">
+        <f t="shared" si="8"/>
         <v>89463</v>
       </c>
-      <c r="P12" s="3">
-        <f t="shared" si="3"/>
+      <c r="AT17" s="3">
+        <f t="shared" si="8"/>
         <v>106491</v>
       </c>
-      <c r="Q12" s="3">
-        <f t="shared" si="3"/>
+      <c r="AU17" s="3">
+        <f t="shared" si="8"/>
         <v>130524</v>
       </c>
-      <c r="R12" s="3">
-        <f t="shared" si="3"/>
+      <c r="AV17" s="3">
+        <f t="shared" si="8"/>
         <v>151825</v>
       </c>
-      <c r="S12" s="3">
-        <f t="shared" si="3"/>
+      <c r="AW17" s="3">
+        <f t="shared" si="8"/>
         <v>168635</v>
       </c>
-      <c r="T12" s="3">
-        <f t="shared" si="3"/>
+      <c r="AX17" s="3">
+        <f t="shared" si="8"/>
         <v>237529</v>
       </c>
-      <c r="U12" s="3">
-        <f t="shared" si="3"/>
+      <c r="AY17" s="3">
+        <f t="shared" si="8"/>
         <v>253528</v>
       </c>
-      <c r="V12" s="3">
-        <f t="shared" si="3"/>
+      <c r="AZ17" s="3">
+        <f t="shared" si="8"/>
         <v>272543</v>
       </c>
-      <c r="W12" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X12" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z12" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA12" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="3" t="s">
+      <c r="BA17" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BB17" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BC17" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BD17" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BE17" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BF17" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:58" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="M13" s="3">
-        <v>0</v>
-      </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3">
+      <c r="AA18" s="3">
+        <v>6868</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>7454</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>8031</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>8411</v>
+      </c>
+      <c r="AG18" s="3">
+        <v>9574</v>
+      </c>
+      <c r="AH18" s="3">
+        <v>10347</v>
+      </c>
+      <c r="AQ18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="3">
         <v>4056</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="AU18" s="3">
         <v>5838</v>
       </c>
-      <c r="R13" s="3">
+      <c r="AV18" s="3">
         <v>8918</v>
       </c>
-      <c r="S13" s="3">
+      <c r="AW18" s="3">
         <v>13059</v>
       </c>
-      <c r="T13" s="3">
+      <c r="AX18" s="3">
         <v>19206</v>
       </c>
-      <c r="U13" s="3">
+      <c r="AY18" s="3">
         <v>26280</v>
       </c>
-      <c r="V13" s="3">
+      <c r="AZ18" s="3">
         <v>33088</v>
       </c>
     </row>
-    <row r="14" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="3" t="s">
+    <row r="19" spans="2:58" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M14" s="3">
+      <c r="AA19" s="3">
+        <v>209</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>288</v>
+      </c>
+      <c r="AD19" s="3">
+        <v>285</v>
+      </c>
+      <c r="AE19" s="3">
+        <v>297</v>
+      </c>
+      <c r="AG19" s="3">
+        <v>495</v>
+      </c>
+      <c r="AH19" s="3">
+        <v>365</v>
+      </c>
+      <c r="AQ19" s="3">
         <v>327</v>
       </c>
-      <c r="N14" s="3">
+      <c r="AR19" s="3">
         <v>445</v>
       </c>
-      <c r="O14" s="3">
+      <c r="AS19" s="3">
         <v>809</v>
       </c>
-      <c r="P14" s="3">
+      <c r="AT19" s="3">
         <v>477</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="AU19" s="3">
         <v>595</v>
       </c>
-      <c r="R14" s="3">
+      <c r="AV19" s="3">
         <v>659</v>
       </c>
-      <c r="S14" s="3">
+      <c r="AW19" s="3">
         <v>657</v>
       </c>
-      <c r="T14" s="3">
+      <c r="AX19" s="3">
         <v>753</v>
       </c>
-      <c r="U14" s="3">
+      <c r="AY19" s="3">
         <v>1068</v>
       </c>
-      <c r="V14" s="3">
+      <c r="AZ19" s="3">
         <v>1527</v>
       </c>
     </row>
-    <row r="15" spans="2:86" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="17" t="s">
+    <row r="20" spans="2:58" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="17" t="s">
         <v>1868</v>
       </c>
-      <c r="M15" s="17">
-        <v>0</v>
-      </c>
-      <c r="N15" s="17">
-        <v>0</v>
-      </c>
-      <c r="O15" s="17">
-        <v>0</v>
-      </c>
-      <c r="P15" s="17">
+      <c r="AA20" s="17">
+        <v>638</v>
+      </c>
+      <c r="AC20" s="17">
+        <v>84</v>
+      </c>
+      <c r="AD20" s="17">
+        <v>3</v>
+      </c>
+      <c r="AE20" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AG20" s="17">
+        <v>72</v>
+      </c>
+      <c r="AH20" s="17">
+        <v>102</v>
+      </c>
+      <c r="AQ20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="17">
         <v>-169</v>
       </c>
-      <c r="Q15" s="17">
+      <c r="AU20" s="17">
         <v>-138</v>
       </c>
-      <c r="R15" s="17">
+      <c r="AV20" s="17">
         <v>455</v>
       </c>
-      <c r="S15" s="17">
+      <c r="AW20" s="17">
         <v>176</v>
       </c>
-      <c r="T15" s="17">
+      <c r="AX20" s="17">
         <v>149</v>
       </c>
-      <c r="U15" s="17">
+      <c r="AY20" s="17">
         <v>1960</v>
       </c>
-      <c r="V15" s="17">
+      <c r="AZ20" s="17">
         <v>236</v>
       </c>
     </row>
-    <row r="16" spans="2:86" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="11" t="s">
+    <row r="21" spans="2:58" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="K16" s="11">
-        <f>SUM(K12:K15)</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="11">
-        <f t="shared" ref="L16:AB16" si="4">SUM(L12:L15)</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="11">
-        <f t="shared" si="4"/>
+      <c r="E21" s="11">
+        <f>SUM(E17:E20)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="11">
+        <f t="shared" ref="F21:P21" si="9">SUM(F17:F20)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="11">
+        <f>SUM(Q17:Q20)</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="11">
+        <f t="shared" ref="R21:AK21" si="10">SUM(R17:R20)</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X21" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="11">
+        <f t="shared" si="10"/>
+        <v>69092</v>
+      </c>
+      <c r="AB21" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="11">
+        <f t="shared" si="10"/>
+        <v>69787</v>
+      </c>
+      <c r="AD21" s="11">
+        <f t="shared" si="10"/>
+        <v>74604</v>
+      </c>
+      <c r="AE21" s="11">
+        <f t="shared" si="10"/>
+        <v>76693</v>
+      </c>
+      <c r="AF21" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="11">
+        <f t="shared" si="10"/>
+        <v>80539</v>
+      </c>
+      <c r="AH21" s="11">
+        <f t="shared" si="10"/>
+        <v>84742</v>
+      </c>
+      <c r="AI21" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AK21" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AO21" s="11">
+        <f>SUM(AO17:AO20)</f>
+        <v>0</v>
+      </c>
+      <c r="AP21" s="11">
+        <f t="shared" ref="AP21:BF21" si="11">SUM(AP17:AP20)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="11">
+        <f t="shared" si="11"/>
         <v>66001</v>
       </c>
-      <c r="N16" s="11">
-        <f t="shared" si="4"/>
+      <c r="AR21" s="11">
+        <f t="shared" si="11"/>
         <v>74989</v>
       </c>
-      <c r="O16" s="11">
-        <f t="shared" si="4"/>
+      <c r="AS21" s="11">
+        <f t="shared" si="11"/>
         <v>90272</v>
       </c>
-      <c r="P16" s="11">
-        <f t="shared" si="4"/>
+      <c r="AT21" s="11">
+        <f t="shared" si="11"/>
         <v>110855</v>
       </c>
-      <c r="Q16" s="11">
-        <f t="shared" si="4"/>
+      <c r="AU21" s="11">
+        <f t="shared" si="11"/>
         <v>136819</v>
       </c>
-      <c r="R16" s="11">
-        <f t="shared" si="4"/>
+      <c r="AV21" s="11">
+        <f t="shared" si="11"/>
         <v>161857</v>
       </c>
-      <c r="S16" s="11">
-        <f t="shared" si="4"/>
+      <c r="AW21" s="11">
+        <f t="shared" si="11"/>
         <v>182527</v>
       </c>
-      <c r="T16" s="11">
-        <f t="shared" si="4"/>
+      <c r="AX21" s="11">
+        <f t="shared" si="11"/>
         <v>257637</v>
       </c>
-      <c r="U16" s="11">
-        <f t="shared" si="4"/>
+      <c r="AY21" s="11">
+        <f t="shared" si="11"/>
         <v>282836</v>
       </c>
-      <c r="V16" s="11">
-        <f t="shared" si="4"/>
+      <c r="AZ21" s="11">
+        <f t="shared" si="11"/>
         <v>307394</v>
       </c>
-      <c r="W16" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X16" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z16" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB16" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:28" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="2:28" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="3" t="s">
+      <c r="BA21" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BB21" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BC21" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BD21" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BE21" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BF21" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:58" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="2:58" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="96" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="24" spans="2:58" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="12" t="e">
+        <f>E15/E$21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F24" s="12" t="e">
+        <f t="shared" ref="F24:AG24" si="12">F15/F$21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" s="12" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H24" s="12" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24" s="12" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J24" s="12" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K24" s="12" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L24" s="12" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M24" s="12" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N24" s="12" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O24" s="12" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P24" s="12" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q24" s="12" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R24" s="12" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S24" s="12" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T24" s="12" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U24" s="12" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V24" s="12" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W24" s="12" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X24" s="12" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y24" s="12" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z24" s="12" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA24" s="12">
+        <f t="shared" si="12"/>
+        <v>0.78854281248190816</v>
+      </c>
+      <c r="AB24" s="12" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC24" s="12">
+        <f t="shared" si="12"/>
+        <v>0.78163554816799685</v>
+      </c>
+      <c r="AD24" s="12">
+        <f t="shared" si="12"/>
+        <v>0.779354994370275</v>
+      </c>
+      <c r="AE24" s="12">
+        <f t="shared" si="12"/>
+        <v>0.77773721200109525</v>
+      </c>
+      <c r="AF24" s="12" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG24" s="12">
+        <f t="shared" si="12"/>
+        <v>0.76557940873365704</v>
+      </c>
+      <c r="AH24" s="12">
+        <f>AH15/AH$21</f>
+        <v>0.76250265511788728</v>
+      </c>
+      <c r="AO24" s="12" t="e">
+        <f>AO15/AO$21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP24" s="12" t="e">
+        <f t="shared" ref="AP24:AZ24" si="13">AP15/AP$21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ24" s="12">
+        <f t="shared" si="13"/>
+        <v>0.90338025181436643</v>
+      </c>
+      <c r="AR24" s="12">
+        <f t="shared" si="13"/>
+        <v>0.89866513755350785</v>
+      </c>
+      <c r="AS24" s="12">
+        <f t="shared" si="13"/>
+        <v>0.87937566465792272</v>
+      </c>
+      <c r="AT24" s="12">
+        <f t="shared" si="13"/>
+        <v>0.86218032565062463</v>
+      </c>
+      <c r="AU24" s="12">
+        <f t="shared" si="13"/>
+        <v>0.85120487651568866</v>
+      </c>
+      <c r="AV24" s="12">
+        <f t="shared" si="13"/>
+        <v>0.83290188252593333</v>
+      </c>
+      <c r="AW24" s="12">
+        <f t="shared" si="13"/>
+        <v>0.80494392610408327</v>
+      </c>
+      <c r="AX24" s="12">
+        <f t="shared" si="13"/>
+        <v>0.81314795623299452</v>
+      </c>
+      <c r="AY24" s="12">
+        <f t="shared" si="13"/>
+        <v>0.79365073752987592</v>
+      </c>
+      <c r="AZ24" s="12">
+        <f t="shared" si="13"/>
+        <v>0.7737789286713469</v>
+      </c>
+    </row>
+    <row r="25" spans="2:58" s="100" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="100" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E25" s="12" t="e">
+        <f>E16/E$21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="12" t="e">
+        <f t="shared" ref="F25:AG25" si="14">F16/F$21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="12" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25" s="12" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" s="12" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J25" s="12" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K25" s="12" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L25" s="12" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M25" s="12" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" s="12" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O25" s="12" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P25" s="12" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q25" s="12" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R25" s="12" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S25" s="12" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T25" s="12" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U25" s="12" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V25" s="12" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W25" s="12" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X25" s="12" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y25" s="12" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z25" s="12" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA25" s="12">
+        <f t="shared" si="14"/>
+        <v>9.9794476929311648E-2</v>
+      </c>
+      <c r="AB25" s="12" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC25" s="12">
+        <f t="shared" si="14"/>
+        <v>0.10622322209007408</v>
+      </c>
+      <c r="AD25" s="12">
+        <f t="shared" si="14"/>
+        <v>0.10913623934373493</v>
+      </c>
+      <c r="AE25" s="12">
+        <f t="shared" si="14"/>
+        <v>0.10873221806423011</v>
+      </c>
+      <c r="AF25" s="12" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG25" s="12">
+        <f t="shared" si="14"/>
+        <v>0.10850643787481841</v>
+      </c>
+      <c r="AH25" s="12">
+        <f>AH16/AH$21</f>
+        <v>0.10988647895966581</v>
+      </c>
+      <c r="AO25" s="12" t="e">
+        <f>AO16/AO$21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP25" s="12" t="e">
+        <f t="shared" ref="AP25:AZ25" si="15">AP16/AP$21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ25" s="12">
+        <f t="shared" si="15"/>
+        <v>9.1665277798821235E-2</v>
+      </c>
+      <c r="AR25" s="12">
+        <f t="shared" si="15"/>
+        <v>9.5400658763285281E-2</v>
+      </c>
+      <c r="AS25" s="12">
+        <f t="shared" si="15"/>
+        <v>0.11166253101736973</v>
+      </c>
+      <c r="AT25" s="12">
+        <f t="shared" si="15"/>
+        <v>9.8452934012899729E-2</v>
+      </c>
+      <c r="AU25" s="12">
+        <f t="shared" si="15"/>
+        <v>0.10278543184791586</v>
+      </c>
+      <c r="AV25" s="12">
+        <f t="shared" si="15"/>
+        <v>0.10511748024490754</v>
+      </c>
+      <c r="AW25" s="12">
+        <f t="shared" si="15"/>
+        <v>0.11894678595495461</v>
+      </c>
+      <c r="AX25" s="12">
+        <f t="shared" si="15"/>
+        <v>0.1088042478370731</v>
+      </c>
+      <c r="AY25" s="12">
+        <f t="shared" si="15"/>
+        <v>0.10272737558160913</v>
+      </c>
+      <c r="AZ25" s="12">
+        <f t="shared" si="15"/>
+        <v>0.11284540361880843</v>
+      </c>
+    </row>
+    <row r="26" spans="2:58" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="E26" s="12" t="e">
+        <f>E18/E$21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F26" s="12" t="e">
+        <f t="shared" ref="F26:AG26" si="16">F18/F$21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="12" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H26" s="12" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I26" s="12" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J26" s="12" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K26" s="12" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L26" s="12" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M26" s="12" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N26" s="12" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O26" s="12" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P26" s="12" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q26" s="12" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R26" s="12" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S26" s="12" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T26" s="12" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U26" s="12" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V26" s="12" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W26" s="12" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X26" s="12" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y26" s="12" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z26" s="12" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA26" s="12">
+        <f t="shared" si="16"/>
+        <v>9.9403693625890119E-2</v>
+      </c>
+      <c r="AB26" s="12" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC26" s="12">
+        <f t="shared" si="16"/>
+        <v>0.10681072406035508</v>
+      </c>
+      <c r="AD26" s="12">
+        <f t="shared" si="16"/>
+        <v>0.10764838346469358</v>
+      </c>
+      <c r="AE26" s="12">
+        <f t="shared" si="16"/>
+        <v>0.10967102603888229</v>
+      </c>
+      <c r="AF26" s="12" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG26" s="12">
+        <f t="shared" si="16"/>
+        <v>0.11887408584660848</v>
+      </c>
+      <c r="AH26" s="12">
+        <f>AH18/AH$21</f>
+        <v>0.1221000212409431</v>
+      </c>
+      <c r="AO26" s="12" t="e">
+        <f>AO18/AO$21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP26" s="12" t="e">
+        <f t="shared" ref="AP26:AZ26" si="17">AP18/AP$21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ26" s="12">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR26" s="12">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AS26" s="12">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AT26" s="12">
+        <f t="shared" si="17"/>
+        <v>3.6588336114744484E-2</v>
+      </c>
+      <c r="AU26" s="12">
+        <f t="shared" si="17"/>
+        <v>4.2669512275341874E-2</v>
+      </c>
+      <c r="AV26" s="12">
+        <f t="shared" si="17"/>
+        <v>5.5098018621375658E-2</v>
+      </c>
+      <c r="AW26" s="12">
+        <f t="shared" si="17"/>
+        <v>7.1545579558092778E-2</v>
+      </c>
+      <c r="AX26" s="12">
+        <f t="shared" si="17"/>
+        <v>7.4546746003097381E-2</v>
+      </c>
+      <c r="AY26" s="12">
+        <f t="shared" si="17"/>
+        <v>9.2916036148156522E-2</v>
+      </c>
+      <c r="AZ26" s="12">
+        <f t="shared" si="17"/>
+        <v>0.10764035732642797</v>
+      </c>
+    </row>
+    <row r="27" spans="2:58" s="100" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="100" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="12" t="e">
+        <f>E19/E$21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F27" s="12" t="e">
+        <f t="shared" ref="F27:AG27" si="18">F19/F$21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" s="12" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H27" s="12" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" s="12" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J27" s="12" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K27" s="12" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L27" s="12" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M27" s="12" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N27" s="12" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O27" s="12" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P27" s="12" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q27" s="12" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R27" s="12" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S27" s="12" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T27" s="12" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U27" s="12" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V27" s="12" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W27" s="12" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X27" s="12" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y27" s="12" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z27" s="12" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA27" s="12">
+        <f t="shared" si="18"/>
+        <v>3.0249522375962487E-3</v>
+      </c>
+      <c r="AB27" s="12" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC27" s="12">
+        <f t="shared" si="18"/>
+        <v>4.1268431083153019E-3</v>
+      </c>
+      <c r="AD27" s="12">
+        <f t="shared" si="18"/>
+        <v>3.8201705002412741E-3</v>
+      </c>
+      <c r="AE27" s="12">
+        <f t="shared" si="18"/>
+        <v>3.8725828954402617E-3</v>
+      </c>
+      <c r="AF27" s="12" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG27" s="12">
+        <f t="shared" si="18"/>
+        <v>6.1460907138156671E-3</v>
+      </c>
+      <c r="AH27" s="12">
+        <f>AH19/AH$21</f>
+        <v>4.3071912392910246E-3</v>
+      </c>
+      <c r="AO27" s="12" t="e">
+        <f>AO19/AO$21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP27" s="12" t="e">
+        <f t="shared" ref="AP27:AZ27" si="19">AP19/AP$21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ27" s="12">
+        <f t="shared" si="19"/>
+        <v>4.9544703868123208E-3</v>
+      </c>
+      <c r="AR27" s="12">
+        <f t="shared" si="19"/>
+        <v>5.9342036832068703E-3</v>
+      </c>
+      <c r="AS27" s="12">
+        <f t="shared" si="19"/>
+        <v>8.9618043247075511E-3</v>
+      </c>
+      <c r="AT27" s="12">
+        <f t="shared" si="19"/>
+        <v>4.3029182265121105E-3</v>
+      </c>
+      <c r="AU27" s="12">
+        <f t="shared" si="19"/>
+        <v>4.3488112031223733E-3</v>
+      </c>
+      <c r="AV27" s="12">
+        <f t="shared" si="19"/>
+        <v>4.071495208733635E-3</v>
+      </c>
+      <c r="AW27" s="12">
+        <f t="shared" si="19"/>
+        <v>3.5994674760446398E-3</v>
+      </c>
+      <c r="AX27" s="12">
+        <f t="shared" si="19"/>
+        <v>2.9227168457946645E-3</v>
+      </c>
+      <c r="AY27" s="12">
+        <f t="shared" si="19"/>
+        <v>3.7760398251990555E-3</v>
+      </c>
+      <c r="AZ27" s="12">
+        <f t="shared" si="19"/>
+        <v>4.9675660552906042E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:58" s="101" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="101" t="s">
+        <v>1868</v>
+      </c>
+      <c r="E28" s="102" t="e">
+        <f>E20/E$21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F28" s="102" t="e">
+        <f t="shared" ref="F28:AG28" si="20">F20/F$21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" s="102" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H28" s="102" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" s="102" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J28" s="102" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K28" s="102" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L28" s="102" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M28" s="102" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N28" s="102" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O28" s="102" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P28" s="102" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q28" s="102" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R28" s="102" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S28" s="102" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T28" s="102" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U28" s="102" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V28" s="102" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W28" s="102" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X28" s="102" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y28" s="102" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z28" s="102" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA28" s="102">
+        <f t="shared" si="20"/>
+        <v>9.2340647252938113E-3</v>
+      </c>
+      <c r="AB28" s="102" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC28" s="102">
+        <f t="shared" si="20"/>
+        <v>1.2036625732586299E-3</v>
+      </c>
+      <c r="AD28" s="102">
+        <f t="shared" si="20"/>
+        <v>4.0212321055171307E-5</v>
+      </c>
+      <c r="AE28" s="102">
+        <f t="shared" si="20"/>
+        <v>-1.303899964794701E-5</v>
+      </c>
+      <c r="AF28" s="102" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG28" s="102">
+        <f t="shared" si="20"/>
+        <v>8.9397683110046069E-4</v>
+      </c>
+      <c r="AH28" s="102">
+        <f>AH20/AH$21</f>
+        <v>1.2036534422128343E-3</v>
+      </c>
+      <c r="AO28" s="102" t="e">
+        <f>AO20/AO$21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP28" s="102" t="e">
+        <f t="shared" ref="AP28:AZ28" si="21">AP20/AP$21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ28" s="102">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AR28" s="102">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AS28" s="102">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AT28" s="102">
+        <f t="shared" si="21"/>
+        <v>-1.5245140047810202E-3</v>
+      </c>
+      <c r="AU28" s="102">
+        <f t="shared" si="21"/>
+        <v>-1.0086318420687184E-3</v>
+      </c>
+      <c r="AV28" s="102">
+        <f t="shared" si="21"/>
+        <v>2.8111233990497785E-3</v>
+      </c>
+      <c r="AW28" s="102">
+        <f t="shared" si="21"/>
+        <v>9.6424090682474377E-4</v>
+      </c>
+      <c r="AX28" s="102">
+        <f t="shared" si="21"/>
+        <v>5.783330810403785E-4</v>
+      </c>
+      <c r="AY28" s="102">
+        <f t="shared" si="21"/>
+        <v>6.9298109151593153E-3</v>
+      </c>
+      <c r="AZ28" s="102">
+        <f t="shared" si="21"/>
+        <v>7.6774432812611829E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:58" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="12" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E29" s="12" t="e">
+        <f>SUM(E24:E28)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F29" s="12" t="e">
+        <f t="shared" ref="F29:AG29" si="22">SUM(F24:F28)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="12" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H29" s="12" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I29" s="12" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J29" s="12" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K29" s="12" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L29" s="12" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M29" s="12" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N29" s="12" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O29" s="12" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P29" s="12" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q29" s="12" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R29" s="12" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S29" s="12" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T29" s="12" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U29" s="12" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V29" s="12" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W29" s="12" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X29" s="12" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y29" s="12" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z29" s="12" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA29" s="12">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AB29" s="12" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC29" s="12">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AD29" s="12">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE29" s="12">
+        <f t="shared" si="22"/>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="AF29" s="12" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG29" s="12">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AH29" s="12">
+        <f>SUM(AH24:AH28)</f>
+        <v>1</v>
+      </c>
+      <c r="AO29" s="12" t="e">
+        <f>SUM(AO24:AO28)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP29" s="12" t="e">
+        <f t="shared" ref="AP29:AZ29" si="23">SUM(AP24:AP28)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ29" s="12">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AR29" s="12">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AS29" s="12">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AT29" s="12">
+        <f t="shared" si="23"/>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="AU29" s="12">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AV29" s="12">
+        <f t="shared" si="23"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AW29" s="12">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AX29" s="12">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AY29" s="12">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AZ29" s="12">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:58" s="73" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="73" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="31" spans="2:58" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="3" t="s">
         <v>1841</v>
       </c>
-      <c r="M18" s="3">
+      <c r="AA31" s="3">
+        <v>33372</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>32864</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>35073</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>36354</v>
+      </c>
+      <c r="AG31" s="3">
+        <v>38737</v>
+      </c>
+      <c r="AH31" s="3">
+        <v>41196</v>
+      </c>
+      <c r="AQ31" s="3">
         <v>29482</v>
       </c>
-      <c r="N18" s="3">
+      <c r="AR31" s="3">
         <v>34810</v>
       </c>
-      <c r="O18" s="3">
+      <c r="AS31" s="3">
         <v>42781</v>
       </c>
-      <c r="P18" s="3">
+      <c r="AT31" s="3">
         <v>52449</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="AU31" s="3">
         <v>63269</v>
       </c>
-      <c r="R18" s="3">
+      <c r="AV31" s="3">
         <v>74843</v>
       </c>
-      <c r="S18" s="3">
+      <c r="AW31" s="3">
         <v>85014</v>
       </c>
-      <c r="T18" s="3">
+      <c r="AX31" s="3">
         <v>117854</v>
       </c>
-      <c r="U18" s="3">
+      <c r="AY31" s="3">
         <v>134814</v>
       </c>
-      <c r="V18" s="3">
+      <c r="AZ31" s="3">
         <v>146286</v>
       </c>
     </row>
-    <row r="19" spans="2:28" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="3" t="s">
+    <row r="32" spans="2:58" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="3" t="s">
         <v>1842</v>
       </c>
-      <c r="M19" s="3">
-        <v>0</v>
-      </c>
-      <c r="N19" s="3">
-        <v>0</v>
-      </c>
-      <c r="O19" s="3">
-        <v>0</v>
-      </c>
-      <c r="P19" s="3">
+      <c r="AA32" s="3">
+        <v>19450</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>21078</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>22289</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>22661</v>
+      </c>
+      <c r="AG32" s="3">
+        <v>23788</v>
+      </c>
+      <c r="AH32" s="3">
+        <v>24683</v>
+      </c>
+      <c r="AQ32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT32" s="3">
         <v>36236</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="AU32" s="3">
         <v>44739</v>
       </c>
-      <c r="R19" s="3">
+      <c r="AV32" s="3">
         <v>50645</v>
       </c>
-      <c r="S19" s="3">
+      <c r="AW32" s="3">
         <v>55370</v>
       </c>
-      <c r="T19" s="3">
+      <c r="AX32" s="3">
         <v>79107</v>
       </c>
-      <c r="U19" s="3">
+      <c r="AY32" s="3">
         <v>82062</v>
       </c>
-      <c r="V19" s="3">
+      <c r="AZ32" s="3">
         <v>91038</v>
       </c>
     </row>
-    <row r="20" spans="2:28" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="3" t="s">
+    <row r="33" spans="2:58" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="3" t="s">
         <v>1843</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="AA33" s="3">
+        <v>11494</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>11681</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>12728</v>
+      </c>
+      <c r="AE33" s="3">
+        <v>13126</v>
+      </c>
+      <c r="AG33" s="3">
+        <v>13289</v>
+      </c>
+      <c r="AH33" s="3">
+        <v>13823</v>
+      </c>
+      <c r="AQ33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT33" s="3">
         <v>16192</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="AU33" s="3">
         <v>21341</v>
       </c>
-      <c r="R20" s="3">
+      <c r="AV33" s="3">
         <v>26928</v>
       </c>
-      <c r="S20" s="3">
+      <c r="AW33" s="3">
         <v>32550</v>
       </c>
-      <c r="T20" s="3">
+      <c r="AX33" s="3">
         <v>46123</v>
       </c>
-      <c r="U20" s="3">
+      <c r="AY33" s="3">
         <v>47024</v>
       </c>
-      <c r="V20" s="3">
+      <c r="AZ33" s="3">
         <v>51514</v>
       </c>
     </row>
-    <row r="21" spans="2:28" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="17" t="s">
+    <row r="34" spans="2:58" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="17" t="s">
         <v>1844</v>
       </c>
-      <c r="M21" s="17">
+      <c r="AA34" s="17">
+        <v>4138</v>
+      </c>
+      <c r="AC34" s="17">
+        <v>4080</v>
+      </c>
+      <c r="AD34" s="17">
+        <v>4511</v>
+      </c>
+      <c r="AE34" s="17">
+        <v>4553</v>
+      </c>
+      <c r="AG34" s="17">
+        <v>4653</v>
+      </c>
+      <c r="AH34" s="17">
+        <v>4938</v>
+      </c>
+      <c r="AQ34" s="17">
         <f>6483+30036</f>
         <v>36519</v>
       </c>
-      <c r="N21" s="17">
+      <c r="AR34" s="17">
         <f>33112+7067</f>
         <v>40179</v>
       </c>
-      <c r="O21" s="17">
+      <c r="AS34" s="17">
         <f>39704+7787</f>
         <v>47491</v>
       </c>
-      <c r="P21" s="17">
+      <c r="AT34" s="17">
         <v>6147</v>
       </c>
-      <c r="Q21" s="17">
+      <c r="AU34" s="17">
         <v>7608</v>
       </c>
-      <c r="R21" s="17">
+      <c r="AV34" s="17">
         <v>8986</v>
       </c>
-      <c r="S21" s="17">
+      <c r="AW34" s="17">
         <v>9417</v>
       </c>
-      <c r="T21" s="17">
+      <c r="AX34" s="17">
         <v>14404</v>
       </c>
-      <c r="U21" s="17">
+      <c r="AY34" s="17">
         <v>16976</v>
       </c>
-      <c r="V21" s="17">
+      <c r="AZ34" s="17">
         <v>18320</v>
       </c>
     </row>
-    <row r="22" spans="2:28" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="3" t="s">
+    <row r="35" spans="2:58" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="3" t="s">
         <v>1869</v>
       </c>
-      <c r="K22" s="3">
-        <f>SUM(K18:K21)</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <f t="shared" ref="L22:AB22" si="5">SUM(L18:L21)</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <f t="shared" si="5"/>
+      <c r="E35" s="3">
+        <f>SUM(E31:E34)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" ref="F35:P35" si="24">SUM(F31:F34)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <f>SUM(Q31:Q34)</f>
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <f t="shared" ref="R35:AK35" si="25">SUM(R31:R34)</f>
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
+        <f t="shared" si="25"/>
+        <v>68454</v>
+      </c>
+      <c r="AB35" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3">
+        <f t="shared" si="25"/>
+        <v>69703</v>
+      </c>
+      <c r="AD35" s="3">
+        <f t="shared" si="25"/>
+        <v>74601</v>
+      </c>
+      <c r="AE35" s="3">
+        <f t="shared" si="25"/>
+        <v>76694</v>
+      </c>
+      <c r="AF35" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="3">
+        <f t="shared" si="25"/>
+        <v>80467</v>
+      </c>
+      <c r="AH35" s="3">
+        <f t="shared" si="25"/>
+        <v>84640</v>
+      </c>
+      <c r="AI35" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AK35" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AO35" s="3">
+        <f>SUM(AO31:AO34)</f>
+        <v>0</v>
+      </c>
+      <c r="AP35" s="3">
+        <f t="shared" ref="AP35:BF35" si="26">SUM(AP31:AP34)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="3">
+        <f t="shared" si="26"/>
         <v>66001</v>
       </c>
-      <c r="N22" s="3">
-        <f t="shared" si="5"/>
+      <c r="AR35" s="3">
+        <f t="shared" si="26"/>
         <v>74989</v>
       </c>
-      <c r="O22" s="3">
-        <f t="shared" si="5"/>
+      <c r="AS35" s="3">
+        <f t="shared" si="26"/>
         <v>90272</v>
       </c>
-      <c r="P22" s="3">
-        <f t="shared" si="5"/>
+      <c r="AT35" s="3">
+        <f t="shared" si="26"/>
         <v>111024</v>
       </c>
-      <c r="Q22" s="3">
-        <f t="shared" si="5"/>
+      <c r="AU35" s="3">
+        <f t="shared" si="26"/>
         <v>136957</v>
       </c>
-      <c r="R22" s="3">
-        <f t="shared" si="5"/>
+      <c r="AV35" s="3">
+        <f t="shared" si="26"/>
         <v>161402</v>
       </c>
-      <c r="S22" s="3">
-        <f t="shared" si="5"/>
+      <c r="AW35" s="3">
+        <f t="shared" si="26"/>
         <v>182351</v>
       </c>
-      <c r="T22" s="3">
-        <f t="shared" si="5"/>
+      <c r="AX35" s="3">
+        <f t="shared" si="26"/>
         <v>257488</v>
       </c>
-      <c r="U22" s="3">
-        <f t="shared" si="5"/>
+      <c r="AY35" s="3">
+        <f t="shared" si="26"/>
         <v>280876</v>
       </c>
-      <c r="V22" s="3">
-        <f t="shared" si="5"/>
+      <c r="AZ35" s="3">
+        <f t="shared" si="26"/>
         <v>307158</v>
       </c>
-      <c r="W22" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X22" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z22" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA22" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB22" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:28" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="17" t="s">
+      <c r="BA35" s="3">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BB35" s="3">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BC35" s="3">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BD35" s="3">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BE35" s="3">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BF35" s="3">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:58" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="17" t="s">
         <v>1855</v>
       </c>
-      <c r="M23" s="5">
-        <v>0</v>
-      </c>
-      <c r="N23" s="5">
-        <v>0</v>
-      </c>
-      <c r="O23" s="5">
-        <v>0</v>
-      </c>
-      <c r="P23" s="5">
+      <c r="AA36" s="5">
+        <v>638</v>
+      </c>
+      <c r="AC36" s="5">
+        <v>84</v>
+      </c>
+      <c r="AD36" s="5">
+        <v>3</v>
+      </c>
+      <c r="AE36" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AG36" s="5">
+        <v>72</v>
+      </c>
+      <c r="AH36" s="5">
+        <v>102</v>
+      </c>
+      <c r="AQ36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT36" s="5">
         <v>-169</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="AU36" s="5">
         <v>-138</v>
       </c>
-      <c r="R23" s="5">
+      <c r="AV36" s="5">
         <v>455</v>
       </c>
-      <c r="S23" s="5">
+      <c r="AW36" s="5">
         <v>176</v>
       </c>
-      <c r="T23" s="5">
+      <c r="AX36" s="5">
         <v>149</v>
       </c>
-      <c r="U23" s="5">
+      <c r="AY36" s="5">
         <v>1960</v>
       </c>
-      <c r="V23" s="5">
+      <c r="AZ36" s="5">
         <v>236</v>
       </c>
     </row>
-    <row r="24" spans="2:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="11" t="s">
+    <row r="37" spans="2:58" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="K24" s="11">
-        <f>SUM(K22:K23)</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="11">
-        <f t="shared" ref="L24:AB24" si="6">SUM(L22:L23)</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="11">
-        <f t="shared" si="6"/>
+      <c r="E37" s="11">
+        <f>SUM(E35:E36)</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="11">
+        <f t="shared" ref="F37:P37" si="27">SUM(F35:F36)</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="11">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="11">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="11">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="11">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="11">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="11">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="11">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="11">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="11">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="11">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="11">
+        <f>SUM(Q35:Q36)</f>
+        <v>0</v>
+      </c>
+      <c r="R37" s="11">
+        <f t="shared" ref="R37:AK37" si="28">SUM(R35:R36)</f>
+        <v>0</v>
+      </c>
+      <c r="S37" s="11">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="11">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="11">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="V37" s="11">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="W37" s="11">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="X37" s="11">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Y37" s="11">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Z37" s="11">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AA37" s="11">
+        <f t="shared" si="28"/>
+        <v>69092</v>
+      </c>
+      <c r="AB37" s="11">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AC37" s="11">
+        <f t="shared" si="28"/>
+        <v>69787</v>
+      </c>
+      <c r="AD37" s="11">
+        <f t="shared" si="28"/>
+        <v>74604</v>
+      </c>
+      <c r="AE37" s="11">
+        <f t="shared" si="28"/>
+        <v>76693</v>
+      </c>
+      <c r="AF37" s="11">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AG37" s="11">
+        <f t="shared" si="28"/>
+        <v>80539</v>
+      </c>
+      <c r="AH37" s="11">
+        <f t="shared" si="28"/>
+        <v>84742</v>
+      </c>
+      <c r="AI37" s="11">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="11">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK37" s="11">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AO37" s="11">
+        <f>SUM(AO35:AO36)</f>
+        <v>0</v>
+      </c>
+      <c r="AP37" s="11">
+        <f t="shared" ref="AP37:BF37" si="29">SUM(AP35:AP36)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ37" s="11">
+        <f t="shared" si="29"/>
         <v>66001</v>
       </c>
-      <c r="N24" s="11">
-        <f t="shared" si="6"/>
+      <c r="AR37" s="11">
+        <f t="shared" si="29"/>
         <v>74989</v>
       </c>
-      <c r="O24" s="11">
-        <f t="shared" si="6"/>
+      <c r="AS37" s="11">
+        <f t="shared" si="29"/>
         <v>90272</v>
       </c>
-      <c r="P24" s="11">
-        <f t="shared" si="6"/>
+      <c r="AT37" s="11">
+        <f t="shared" si="29"/>
         <v>110855</v>
       </c>
-      <c r="Q24" s="11">
-        <f t="shared" si="6"/>
+      <c r="AU37" s="11">
+        <f t="shared" si="29"/>
         <v>136819</v>
       </c>
-      <c r="R24" s="11">
-        <f t="shared" si="6"/>
+      <c r="AV37" s="11">
+        <f t="shared" si="29"/>
         <v>161857</v>
       </c>
-      <c r="S24" s="11">
-        <f t="shared" si="6"/>
+      <c r="AW37" s="11">
+        <f t="shared" si="29"/>
         <v>182527</v>
       </c>
-      <c r="T24" s="11">
-        <f t="shared" si="6"/>
+      <c r="AX37" s="11">
+        <f t="shared" si="29"/>
         <v>257637</v>
       </c>
-      <c r="U24" s="11">
-        <f t="shared" si="6"/>
+      <c r="AY37" s="11">
+        <f t="shared" si="29"/>
         <v>282836</v>
       </c>
-      <c r="V24" s="11">
-        <f t="shared" si="6"/>
+      <c r="AZ37" s="11">
+        <f t="shared" si="29"/>
         <v>307394</v>
       </c>
-      <c r="W24" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X24" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Y24" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z24" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AA24" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB24" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="2:28" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="39" t="s">
+      <c r="BA37" s="11">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BB37" s="11">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BC37" s="11">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BD37" s="11">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BE37" s="11">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BF37" s="11">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:58" x14ac:dyDescent="0.35">
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="2:58" x14ac:dyDescent="0.35">
+      <c r="B39" s="96" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="40" spans="2:58" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="8" t="s">
+        <v>1841</v>
+      </c>
+      <c r="E40" s="8" t="e">
+        <f>E31/E$35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F40" s="8" t="e">
+        <f t="shared" ref="F40:AC40" si="30">F31/F$35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G40" s="8" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H40" s="8" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I40" s="8" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J40" s="8" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K40" s="8" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L40" s="8" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M40" s="8" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N40" s="8" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O40" s="8" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P40" s="8" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q40" s="8" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R40" s="8" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S40" s="8" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T40" s="8" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U40" s="8" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V40" s="8" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W40" s="8" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X40" s="8" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y40" s="8" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z40" s="8" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA40" s="8">
+        <f t="shared" si="30"/>
+        <v>0.48750986063633972</v>
+      </c>
+      <c r="AB40" s="8" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC40" s="8">
+        <f t="shared" si="30"/>
+        <v>0.47148616271896476</v>
+      </c>
+      <c r="AD40" s="8">
+        <f>AD31/AD$35</f>
+        <v>0.47014115092290987</v>
+      </c>
+      <c r="AE40" s="8">
+        <f t="shared" ref="AE40:AK40" si="31">AE31/AE$35</f>
+        <v>0.47401361253813856</v>
+      </c>
+      <c r="AF40" s="8" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG40" s="8">
+        <f t="shared" si="31"/>
+        <v>0.48140231399207128</v>
+      </c>
+      <c r="AH40" s="8">
+        <f t="shared" si="31"/>
+        <v>0.48672022684310018</v>
+      </c>
+      <c r="AI40" s="8" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ40" s="8" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK40" s="8" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO40" s="8" t="e">
+        <f t="shared" ref="AO40:AZ40" si="32">AO31/AO$35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP40" s="8" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ40" s="8">
+        <f t="shared" si="32"/>
+        <v>0.44669020166361117</v>
+      </c>
+      <c r="AR40" s="8">
+        <f t="shared" si="32"/>
+        <v>0.46420141620771044</v>
+      </c>
+      <c r="AS40" s="8">
+        <f t="shared" si="32"/>
+        <v>0.47391217653314427</v>
+      </c>
+      <c r="AT40" s="8">
+        <f t="shared" si="32"/>
+        <v>0.47241137051448334</v>
+      </c>
+      <c r="AU40" s="8">
+        <f t="shared" si="32"/>
+        <v>0.46196251378169789</v>
+      </c>
+      <c r="AV40" s="8">
+        <f t="shared" si="32"/>
+        <v>0.46370553029082662</v>
+      </c>
+      <c r="AW40" s="8">
+        <f t="shared" si="32"/>
+        <v>0.46621076934044781</v>
+      </c>
+      <c r="AX40" s="8">
+        <f t="shared" si="32"/>
+        <v>0.45770676691729323</v>
+      </c>
+      <c r="AY40" s="8">
+        <f t="shared" si="32"/>
+        <v>0.4799769293211239</v>
+      </c>
+      <c r="AZ40" s="8">
+        <f t="shared" si="32"/>
+        <v>0.47625651944601799</v>
+      </c>
+    </row>
+    <row r="41" spans="2:58" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="8" t="s">
+        <v>1842</v>
+      </c>
+      <c r="E41" s="8" t="e">
+        <f>E32/E$35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F41" s="8" t="e">
+        <f t="shared" ref="F41:AC41" si="33">F32/F$35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G41" s="8" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H41" s="8" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I41" s="8" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J41" s="8" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K41" s="8" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L41" s="8" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M41" s="8" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N41" s="8" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O41" s="8" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P41" s="8" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q41" s="8" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R41" s="8" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S41" s="8" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T41" s="8" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U41" s="8" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V41" s="8" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W41" s="8" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X41" s="8" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y41" s="8" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z41" s="8" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA41" s="8">
+        <f t="shared" si="33"/>
+        <v>0.28413241008560491</v>
+      </c>
+      <c r="AB41" s="8" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC41" s="8">
+        <f t="shared" si="33"/>
+        <v>0.30239731431932626</v>
+      </c>
+      <c r="AD41" s="8">
+        <f>AD32/AD$35</f>
+        <v>0.29877615581560568</v>
+      </c>
+      <c r="AE41" s="8">
+        <f t="shared" ref="AE41:AK41" si="34">AE32/AE$35</f>
+        <v>0.29547291835084882</v>
+      </c>
+      <c r="AF41" s="8" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG41" s="8">
+        <f t="shared" si="34"/>
+        <v>0.29562429318851208</v>
+      </c>
+      <c r="AH41" s="8">
+        <f t="shared" si="34"/>
+        <v>0.29162334593572781</v>
+      </c>
+      <c r="AI41" s="8" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ41" s="8" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK41" s="8" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO41" s="8" t="e">
+        <f t="shared" ref="AO41:AZ41" si="35">AO32/AO$35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP41" s="8" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ41" s="8">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AR41" s="8">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AS41" s="8">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AT41" s="8">
+        <f t="shared" si="35"/>
+        <v>0.32637988182735267</v>
+      </c>
+      <c r="AU41" s="8">
+        <f t="shared" si="35"/>
+        <v>0.32666457355228284</v>
+      </c>
+      <c r="AV41" s="8">
+        <f t="shared" si="35"/>
+        <v>0.31378173752493771</v>
+      </c>
+      <c r="AW41" s="8">
+        <f t="shared" si="35"/>
+        <v>0.30364516783565759</v>
+      </c>
+      <c r="AX41" s="8">
+        <f t="shared" si="35"/>
+        <v>0.30722596781209222</v>
+      </c>
+      <c r="AY41" s="8">
+        <f t="shared" si="35"/>
+        <v>0.29216451387801023</v>
+      </c>
+      <c r="AZ41" s="8">
+        <f t="shared" si="35"/>
+        <v>0.2963881780712207</v>
+      </c>
+    </row>
+    <row r="42" spans="2:58" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="8" t="s">
+        <v>1843</v>
+      </c>
+      <c r="E42" s="8" t="e">
+        <f>E33/E$35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F42" s="8" t="e">
+        <f t="shared" ref="F42:AC42" si="36">F33/F$35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G42" s="8" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H42" s="8" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I42" s="8" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J42" s="8" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K42" s="8" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L42" s="8" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M42" s="8" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N42" s="8" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O42" s="8" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P42" s="8" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q42" s="8" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R42" s="8" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S42" s="8" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T42" s="8" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U42" s="8" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V42" s="8" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W42" s="8" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X42" s="8" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y42" s="8" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z42" s="8" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA42" s="8">
+        <f t="shared" si="36"/>
+        <v>0.16790837642796622</v>
+      </c>
+      <c r="AB42" s="8" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC42" s="8">
+        <f t="shared" si="36"/>
+        <v>0.16758245699611207</v>
+      </c>
+      <c r="AD42" s="8">
+        <f>AD33/AD$35</f>
+        <v>0.17061433492848621</v>
+      </c>
+      <c r="AE42" s="8">
+        <f t="shared" ref="AE42:AK42" si="37">AE33/AE$35</f>
+        <v>0.17114767778444206</v>
+      </c>
+      <c r="AF42" s="8" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG42" s="8">
+        <f t="shared" si="37"/>
+        <v>0.16514844594678563</v>
+      </c>
+      <c r="AH42" s="8">
+        <f t="shared" si="37"/>
+        <v>0.16331521739130433</v>
+      </c>
+      <c r="AI42" s="8" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ42" s="8" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK42" s="8" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO42" s="8" t="e">
+        <f t="shared" ref="AO42:AZ42" si="38">AO33/AO$35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP42" s="8" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ42" s="8">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AR42" s="8">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AS42" s="8">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AT42" s="8">
+        <f t="shared" si="38"/>
+        <v>0.14584234039486957</v>
+      </c>
+      <c r="AU42" s="8">
+        <f t="shared" si="38"/>
+        <v>0.15582263046065553</v>
+      </c>
+      <c r="AV42" s="8">
+        <f t="shared" si="38"/>
+        <v>0.16683808131249922</v>
+      </c>
+      <c r="AW42" s="8">
+        <f t="shared" si="38"/>
+        <v>0.17850190018151807</v>
+      </c>
+      <c r="AX42" s="8">
+        <f t="shared" si="38"/>
+        <v>0.17912679425837322</v>
+      </c>
+      <c r="AY42" s="8">
+        <f t="shared" si="38"/>
+        <v>0.1674190746094362</v>
+      </c>
+      <c r="AZ42" s="8">
+        <f t="shared" si="38"/>
+        <v>0.16771173142161364</v>
+      </c>
+    </row>
+    <row r="43" spans="2:58" s="97" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="97" t="s">
+        <v>1844</v>
+      </c>
+      <c r="E43" s="97" t="e">
+        <f>E34/E$35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F43" s="97" t="e">
+        <f t="shared" ref="F43:AC43" si="39">F34/F$35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G43" s="97" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H43" s="97" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I43" s="97" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J43" s="97" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K43" s="97" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L43" s="97" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M43" s="97" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N43" s="97" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O43" s="97" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P43" s="97" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q43" s="97" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R43" s="97" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S43" s="97" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T43" s="97" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U43" s="97" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V43" s="97" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W43" s="97" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X43" s="97" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y43" s="97" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z43" s="97" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA43" s="97">
+        <f t="shared" si="39"/>
+        <v>6.0449352850089108E-2</v>
+      </c>
+      <c r="AB43" s="97" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC43" s="97">
+        <f t="shared" si="39"/>
+        <v>5.853406596559689E-2</v>
+      </c>
+      <c r="AD43" s="97">
+        <f>AD34/AD$35</f>
+        <v>6.0468358332998219E-2</v>
+      </c>
+      <c r="AE43" s="97">
+        <f t="shared" ref="AE43:AK43" si="40">AE34/AE$35</f>
+        <v>5.9365791326570529E-2</v>
+      </c>
+      <c r="AF43" s="97" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG43" s="97">
+        <f t="shared" si="40"/>
+        <v>5.7824946872631018E-2</v>
+      </c>
+      <c r="AH43" s="97">
+        <f t="shared" si="40"/>
+        <v>5.8341209829867673E-2</v>
+      </c>
+      <c r="AI43" s="97" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ43" s="97" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK43" s="97" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO43" s="97" t="e">
+        <f t="shared" ref="AO43:AZ43" si="41">AO34/AO$35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP43" s="97" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ43" s="97">
+        <f t="shared" si="41"/>
+        <v>0.55330979833638883</v>
+      </c>
+      <c r="AR43" s="97">
+        <f t="shared" si="41"/>
+        <v>0.53579858379228951</v>
+      </c>
+      <c r="AS43" s="97">
+        <f t="shared" si="41"/>
+        <v>0.52608782346685568</v>
+      </c>
+      <c r="AT43" s="97">
+        <f t="shared" si="41"/>
+        <v>5.536640726329442E-2</v>
+      </c>
+      <c r="AU43" s="97">
+        <f t="shared" si="41"/>
+        <v>5.5550282205363725E-2</v>
+      </c>
+      <c r="AV43" s="97">
+        <f t="shared" si="41"/>
+        <v>5.5674650871736411E-2</v>
+      </c>
+      <c r="AW43" s="97">
+        <f t="shared" si="41"/>
+        <v>5.1642162642376518E-2</v>
+      </c>
+      <c r="AX43" s="97">
+        <f t="shared" si="41"/>
+        <v>5.5940471012241345E-2</v>
+      </c>
+      <c r="AY43" s="97">
+        <f t="shared" si="41"/>
+        <v>6.0439482191429673E-2</v>
+      </c>
+      <c r="AZ43" s="97">
+        <f t="shared" si="41"/>
+        <v>5.9643571061147684E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:58" s="98" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="98" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E44" s="99" t="e">
+        <f>SUM(E40:E43)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F44" s="99" t="e">
+        <f t="shared" ref="F44:AC44" si="42">SUM(F40:F43)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G44" s="99" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H44" s="99" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I44" s="99" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J44" s="99" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K44" s="99" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L44" s="99" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M44" s="99" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N44" s="99" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O44" s="99" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P44" s="99" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q44" s="99" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R44" s="99" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S44" s="99" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T44" s="99" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U44" s="99" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V44" s="99" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W44" s="99" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X44" s="99" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y44" s="99" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z44" s="99" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA44" s="99">
+        <f t="shared" si="42"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AB44" s="99" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC44" s="99">
+        <f t="shared" si="42"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AD44" s="99">
+        <f>SUM(AD40:AD43)</f>
+        <v>1</v>
+      </c>
+      <c r="AE44" s="99">
+        <f t="shared" ref="AE44:AK44" si="43">SUM(AE40:AE43)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AF44" s="99" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG44" s="99">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="AH44" s="99">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="AI44" s="99" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ44" s="99" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK44" s="99" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO44" s="99" t="e">
+        <f t="shared" ref="AO44" si="44">SUM(AO40:AO43)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP44" s="99" t="e">
+        <f t="shared" ref="AP44" si="45">SUM(AP40:AP43)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ44" s="99">
+        <f t="shared" ref="AQ44" si="46">SUM(AQ40:AQ43)</f>
+        <v>1</v>
+      </c>
+      <c r="AR44" s="99">
+        <f t="shared" ref="AR44" si="47">SUM(AR40:AR43)</f>
+        <v>1</v>
+      </c>
+      <c r="AS44" s="99">
+        <f t="shared" ref="AS44" si="48">SUM(AS40:AS43)</f>
+        <v>1</v>
+      </c>
+      <c r="AT44" s="99">
+        <f t="shared" ref="AT44" si="49">SUM(AT40:AT43)</f>
+        <v>1</v>
+      </c>
+      <c r="AU44" s="99">
+        <f t="shared" ref="AU44" si="50">SUM(AU40:AU43)</f>
+        <v>1</v>
+      </c>
+      <c r="AV44" s="99">
+        <f t="shared" ref="AV44" si="51">SUM(AV40:AV43)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AW44" s="99">
+        <f t="shared" ref="AW44" si="52">SUM(AW40:AW43)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AX44" s="99">
+        <f t="shared" ref="AX44" si="53">SUM(AX40:AX43)</f>
+        <v>1</v>
+      </c>
+      <c r="AY44" s="99">
+        <f t="shared" ref="AY44" si="54">SUM(AY40:AY43)</f>
+        <v>1</v>
+      </c>
+      <c r="AZ44" s="99">
+        <f t="shared" ref="AZ44" si="55">SUM(AZ40:AZ43)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:58" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="39" t="s">
         <v>1851</v>
       </c>
     </row>
-    <row r="27" spans="2:28" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="11" t="s">
+    <row r="46" spans="2:58" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L27" s="11">
+      <c r="AA46" s="11">
+        <v>69092</v>
+      </c>
+      <c r="AC46" s="11">
+        <v>69787</v>
+      </c>
+      <c r="AD46" s="11">
+        <v>74604</v>
+      </c>
+      <c r="AE46" s="11">
+        <v>76693</v>
+      </c>
+      <c r="AG46" s="11">
+        <v>80539</v>
+      </c>
+      <c r="AH46" s="11">
+        <v>84742</v>
+      </c>
+      <c r="AP46" s="11">
         <v>55519</v>
       </c>
-      <c r="M27" s="11">
+      <c r="AQ46" s="11">
         <v>66001</v>
       </c>
-      <c r="N27" s="11">
+      <c r="AR46" s="11">
         <v>74989</v>
       </c>
-      <c r="O27" s="11">
+      <c r="AS46" s="11">
         <v>90272</v>
       </c>
-      <c r="P27" s="11">
+      <c r="AT46" s="11">
         <v>110855</v>
       </c>
-      <c r="Q27" s="11">
+      <c r="AU46" s="11">
         <v>136819</v>
       </c>
-      <c r="R27" s="11">
+      <c r="AV46" s="11">
         <v>161857</v>
       </c>
-      <c r="S27" s="11">
+      <c r="AW46" s="11">
         <v>182527</v>
       </c>
-      <c r="T27" s="11">
+      <c r="AX46" s="11">
         <v>257637</v>
       </c>
-      <c r="U27" s="11">
+      <c r="AY46" s="11">
         <v>282836</v>
       </c>
-      <c r="V27" s="11">
+      <c r="AZ46" s="11">
         <v>307394</v>
       </c>
-      <c r="W27" s="11">
-        <f>V27*(1+W46)</f>
+      <c r="BA46" s="11">
+        <f>AZ46*(1+BA65)</f>
         <v>359650.98</v>
       </c>
-      <c r="X27" s="11">
-        <f t="shared" ref="X27:AB27" si="7">W27*(1+X46)</f>
+      <c r="BB46" s="11">
+        <f t="shared" ref="BB46:BF46" si="56">BA46*(1+BB65)</f>
         <v>420791.64659999998</v>
       </c>
-      <c r="Y27" s="11">
-        <f t="shared" si="7"/>
+      <c r="BC46" s="11">
+        <f t="shared" si="56"/>
         <v>492326.22652199992</v>
       </c>
-      <c r="Z27" s="11">
-        <f t="shared" si="7"/>
+      <c r="BD46" s="11">
+        <f t="shared" si="56"/>
         <v>576021.68503073987</v>
       </c>
-      <c r="AA27" s="11">
-        <f t="shared" si="7"/>
+      <c r="BE46" s="11">
+        <f t="shared" si="56"/>
         <v>673945.37148596556</v>
       </c>
-      <c r="AB27" s="11">
-        <f t="shared" si="7"/>
+      <c r="BF46" s="11">
+        <f t="shared" si="56"/>
         <v>788516.08463857963</v>
       </c>
     </row>
-    <row r="28" spans="2:28" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="17" t="s">
+    <row r="47" spans="2:58" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="17" t="s">
         <v>1864</v>
       </c>
-      <c r="L28" s="17">
+      <c r="AA47" s="17">
+        <v>31158</v>
+      </c>
+      <c r="AC47" s="17">
+        <v>30612</v>
+      </c>
+      <c r="AD47" s="17">
+        <v>31916</v>
+      </c>
+      <c r="AE47" s="17">
+        <v>33229</v>
+      </c>
+      <c r="AG47" s="17">
+        <v>33712</v>
+      </c>
+      <c r="AH47" s="17">
+        <v>35507</v>
+      </c>
+      <c r="AP47" s="17">
         <v>21993</v>
       </c>
-      <c r="M28" s="17">
+      <c r="AQ47" s="17">
         <v>25691</v>
       </c>
-      <c r="N28" s="17">
+      <c r="AR47" s="17">
         <v>28164</v>
       </c>
-      <c r="O28" s="17">
+      <c r="AS47" s="17">
         <v>35138</v>
       </c>
-      <c r="P28" s="17">
+      <c r="AT47" s="17">
         <v>45583</v>
       </c>
-      <c r="Q28" s="17">
+      <c r="AU47" s="17">
         <v>59549</v>
       </c>
-      <c r="R28" s="17">
+      <c r="AV47" s="17">
         <v>71896</v>
       </c>
-      <c r="S28" s="17">
+      <c r="AW47" s="17">
         <v>84732</v>
       </c>
-      <c r="T28" s="17">
+      <c r="AX47" s="17">
         <v>110939</v>
       </c>
-      <c r="U28" s="17">
+      <c r="AY47" s="17">
         <v>126203</v>
       </c>
-      <c r="V28" s="17">
+      <c r="AZ47" s="17">
         <v>133332</v>
       </c>
     </row>
-    <row r="29" spans="2:28" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="11" t="s">
+    <row r="48" spans="2:58" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="K29" s="11">
-        <f>K27-K28</f>
-        <v>0</v>
-      </c>
-      <c r="L29" s="11">
-        <f t="shared" ref="L29:U29" si="8">L27-L28</f>
+      <c r="E48" s="11">
+        <f>E46-E47</f>
+        <v>0</v>
+      </c>
+      <c r="F48" s="11">
+        <f t="shared" ref="F48:P48" si="57">F46-F47</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="11">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="11">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="11">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="11">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="11">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="11">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="11">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="N48" s="11">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="11">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="11">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="11">
+        <f>Q46-Q47</f>
+        <v>0</v>
+      </c>
+      <c r="R48" s="11">
+        <f t="shared" ref="R48:AK48" si="58">R46-R47</f>
+        <v>0</v>
+      </c>
+      <c r="S48" s="11">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="T48" s="11">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="U48" s="11">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="V48" s="11">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="W48" s="11">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="X48" s="11">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="Y48" s="11">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="Z48" s="11">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AA48" s="11">
+        <f t="shared" si="58"/>
+        <v>37934</v>
+      </c>
+      <c r="AB48" s="11">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AC48" s="11">
+        <f t="shared" si="58"/>
+        <v>39175</v>
+      </c>
+      <c r="AD48" s="11">
+        <f t="shared" si="58"/>
+        <v>42688</v>
+      </c>
+      <c r="AE48" s="11">
+        <f t="shared" si="58"/>
+        <v>43464</v>
+      </c>
+      <c r="AF48" s="11">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AG48" s="11">
+        <f t="shared" si="58"/>
+        <v>46827</v>
+      </c>
+      <c r="AH48" s="11">
+        <f t="shared" si="58"/>
+        <v>49235</v>
+      </c>
+      <c r="AI48" s="11">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="11">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AK48" s="11">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AO48" s="11">
+        <f>AO46-AO47</f>
+        <v>0</v>
+      </c>
+      <c r="AP48" s="11">
+        <f t="shared" ref="AP48:AY48" si="59">AP46-AP47</f>
         <v>33526</v>
       </c>
-      <c r="M29" s="11">
-        <f t="shared" si="8"/>
+      <c r="AQ48" s="11">
+        <f t="shared" si="59"/>
         <v>40310</v>
       </c>
-      <c r="N29" s="11">
-        <f t="shared" si="8"/>
+      <c r="AR48" s="11">
+        <f t="shared" si="59"/>
         <v>46825</v>
       </c>
-      <c r="O29" s="11">
-        <f t="shared" si="8"/>
+      <c r="AS48" s="11">
+        <f t="shared" si="59"/>
         <v>55134</v>
       </c>
-      <c r="P29" s="11">
-        <f t="shared" si="8"/>
+      <c r="AT48" s="11">
+        <f t="shared" si="59"/>
         <v>65272</v>
       </c>
-      <c r="Q29" s="11">
-        <f t="shared" si="8"/>
+      <c r="AU48" s="11">
+        <f t="shared" si="59"/>
         <v>77270</v>
       </c>
-      <c r="R29" s="11">
-        <f t="shared" si="8"/>
+      <c r="AV48" s="11">
+        <f t="shared" si="59"/>
         <v>89961</v>
       </c>
-      <c r="S29" s="11">
-        <f t="shared" si="8"/>
+      <c r="AW48" s="11">
+        <f t="shared" si="59"/>
         <v>97795</v>
       </c>
-      <c r="T29" s="11">
-        <f t="shared" si="8"/>
+      <c r="AX48" s="11">
+        <f t="shared" si="59"/>
         <v>146698</v>
       </c>
-      <c r="U29" s="11">
-        <f t="shared" si="8"/>
+      <c r="AY48" s="11">
+        <f t="shared" si="59"/>
         <v>156633</v>
       </c>
-      <c r="V29" s="11">
-        <f>V27-V28</f>
+      <c r="AZ48" s="11">
+        <f>AZ46-AZ47</f>
         <v>174062</v>
       </c>
-      <c r="W29" s="11">
-        <f>W27*W50</f>
+      <c r="BA48" s="11">
+        <f>BA46*BA69</f>
         <v>179825.49</v>
       </c>
-      <c r="X29" s="11">
-        <f t="shared" ref="X29:AB29" si="9">X27*X50</f>
+      <c r="BB48" s="11">
+        <f t="shared" ref="BB48:BF48" si="60">BB46*BB69</f>
         <v>210395.82329999999</v>
       </c>
-      <c r="Y29" s="11">
-        <f t="shared" si="9"/>
+      <c r="BC48" s="11">
+        <f t="shared" si="60"/>
         <v>246163.11326099996</v>
       </c>
-      <c r="Z29" s="11">
-        <f t="shared" si="9"/>
+      <c r="BD48" s="11">
+        <f t="shared" si="60"/>
         <v>288010.84251536994</v>
       </c>
-      <c r="AA29" s="11">
-        <f t="shared" si="9"/>
+      <c r="BE48" s="11">
+        <f t="shared" si="60"/>
         <v>336972.68574298278</v>
       </c>
-      <c r="AB29" s="11">
-        <f t="shared" si="9"/>
+      <c r="BF48" s="11">
+        <f t="shared" si="60"/>
         <v>394258.04231928982</v>
       </c>
     </row>
-    <row r="30" spans="2:28" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="3" t="s">
+    <row r="49" spans="2:116" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L30" s="3">
+      <c r="AA49" s="3">
+        <v>10273</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>11468</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>10588</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>11258</v>
+      </c>
+      <c r="AG49" s="3">
+        <v>11903</v>
+      </c>
+      <c r="AH49" s="3">
+        <v>11860</v>
+      </c>
+      <c r="AP49" s="3">
         <v>7137</v>
       </c>
-      <c r="M30" s="3">
+      <c r="AQ49" s="3">
         <v>9832</v>
       </c>
-      <c r="N30" s="3">
+      <c r="AR49" s="3">
         <v>12282</v>
       </c>
-      <c r="O30" s="3">
+      <c r="AS49" s="3">
         <v>13948</v>
       </c>
-      <c r="P30" s="3">
+      <c r="AT49" s="3">
         <v>16625</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="AU49" s="3">
         <v>21419</v>
       </c>
-      <c r="R30" s="3">
+      <c r="AV49" s="3">
         <v>26018</v>
       </c>
-      <c r="S30" s="3">
+      <c r="AW49" s="3">
         <v>27573</v>
       </c>
-      <c r="T30" s="3">
+      <c r="AX49" s="3">
         <v>31562</v>
       </c>
-      <c r="U30" s="3">
+      <c r="AY49" s="3">
         <v>39500</v>
       </c>
-      <c r="V30" s="3">
+      <c r="AZ49" s="3">
         <v>45427</v>
       </c>
-      <c r="W30" s="3">
-        <f>W$27*W56</f>
+      <c r="BA49" s="3">
+        <f>BA$46*BA75</f>
         <v>35965.097999999998</v>
       </c>
-      <c r="X30" s="3">
-        <f t="shared" ref="X30:AB30" si="10">X$27*X56</f>
+      <c r="BB49" s="3">
+        <f t="shared" ref="BB49:BF49" si="61">BB$46*BB75</f>
         <v>42079.164660000002</v>
       </c>
-      <c r="Y30" s="3">
-        <f t="shared" si="10"/>
+      <c r="BC49" s="3">
+        <f t="shared" si="61"/>
         <v>49232.622652199992</v>
       </c>
-      <c r="Z30" s="3">
-        <f t="shared" si="10"/>
+      <c r="BD49" s="3">
+        <f t="shared" si="61"/>
         <v>57602.16850307399</v>
       </c>
-      <c r="AA30" s="3">
-        <f t="shared" si="10"/>
+      <c r="BE49" s="3">
+        <f t="shared" si="61"/>
         <v>67394.537148596559</v>
       </c>
-      <c r="AB30" s="3">
-        <f t="shared" si="10"/>
+      <c r="BF49" s="3">
+        <f t="shared" si="61"/>
         <v>78851.608463857963</v>
       </c>
     </row>
-    <row r="31" spans="2:28" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="3" t="s">
+    <row r="50" spans="2:116" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="L31" s="3">
+      <c r="AA50" s="3">
+        <v>6929</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>6533</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>6781</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>6884</v>
+      </c>
+      <c r="AG50" s="3">
+        <v>6426</v>
+      </c>
+      <c r="AH50" s="3">
+        <v>6792</v>
+      </c>
+      <c r="AP50" s="3">
         <v>6554</v>
       </c>
-      <c r="M31" s="3">
+      <c r="AQ50" s="3">
         <v>8131</v>
       </c>
-      <c r="N31" s="3">
+      <c r="AR50" s="3">
         <v>9047</v>
       </c>
-      <c r="O31" s="3">
+      <c r="AS50" s="3">
         <v>10485</v>
       </c>
-      <c r="P31" s="3">
+      <c r="AT50" s="3">
         <v>12893</v>
       </c>
-      <c r="Q31" s="3">
+      <c r="AU50" s="3">
         <v>16333</v>
       </c>
-      <c r="R31" s="3">
+      <c r="AV50" s="3">
         <v>18464</v>
       </c>
-      <c r="S31" s="3">
+      <c r="AW50" s="3">
         <v>17946</v>
       </c>
-      <c r="T31" s="3">
+      <c r="AX50" s="3">
         <v>22912</v>
       </c>
-      <c r="U31" s="3">
+      <c r="AY50" s="3">
         <v>26567</v>
       </c>
-      <c r="V31" s="3">
+      <c r="AZ50" s="3">
         <v>27917</v>
       </c>
-      <c r="W31" s="3">
-        <f>W$27*W57</f>
+      <c r="BA50" s="3">
+        <f>BA$46*BA76</f>
         <v>21579.058799999999</v>
       </c>
-      <c r="X31" s="3">
-        <f t="shared" ref="X31:AB31" si="11">X$27*X57</f>
+      <c r="BB50" s="3">
+        <f t="shared" ref="BB50:BF50" si="62">BB$46*BB76</f>
         <v>25247.498795999996</v>
       </c>
-      <c r="Y31" s="3">
-        <f t="shared" si="11"/>
+      <c r="BC50" s="3">
+        <f t="shared" si="62"/>
         <v>29539.573591319993</v>
       </c>
-      <c r="Z31" s="3">
-        <f t="shared" si="11"/>
+      <c r="BD50" s="3">
+        <f t="shared" si="62"/>
         <v>34561.301101844394</v>
       </c>
-      <c r="AA31" s="3">
-        <f t="shared" si="11"/>
+      <c r="BE50" s="3">
+        <f t="shared" si="62"/>
         <v>40436.722289157929</v>
       </c>
-      <c r="AB31" s="3">
-        <f t="shared" si="11"/>
+      <c r="BF50" s="3">
+        <f t="shared" si="62"/>
         <v>47310.965078314774</v>
       </c>
     </row>
-    <row r="32" spans="2:28" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="17" t="s">
+    <row r="51" spans="2:116" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="L32" s="17">
+      <c r="AA51" s="17">
+        <v>3597</v>
+      </c>
+      <c r="AC51" s="17">
+        <v>3759</v>
+      </c>
+      <c r="AD51" s="17">
+        <v>3481</v>
+      </c>
+      <c r="AE51" s="17">
+        <v>3979</v>
+      </c>
+      <c r="AG51" s="17">
+        <v>3026</v>
+      </c>
+      <c r="AH51" s="17">
+        <v>3158</v>
+      </c>
+      <c r="AP51" s="17">
         <v>4432</v>
       </c>
-      <c r="M32" s="17">
+      <c r="AQ51" s="17">
         <v>5851</v>
       </c>
-      <c r="N32" s="17">
+      <c r="AR51" s="17">
         <v>6136</v>
       </c>
-      <c r="O32" s="17">
+      <c r="AS51" s="17">
         <v>6985</v>
       </c>
-      <c r="P32" s="17">
+      <c r="AT51" s="17">
         <v>6840</v>
       </c>
-      <c r="Q32" s="17">
+      <c r="AU51" s="17">
         <v>6923</v>
       </c>
-      <c r="R32" s="17">
+      <c r="AV51" s="17">
         <v>9551</v>
       </c>
-      <c r="S32" s="17">
+      <c r="AW51" s="17">
         <v>11052</v>
       </c>
-      <c r="T32" s="17">
+      <c r="AX51" s="17">
         <v>13510</v>
       </c>
-      <c r="U32" s="17">
+      <c r="AY51" s="17">
         <v>15724</v>
       </c>
-      <c r="V32" s="17">
+      <c r="AZ51" s="17">
         <v>16425</v>
       </c>
-      <c r="W32" s="3">
-        <f>W$27*W58</f>
+      <c r="BA51" s="3">
+        <f>BA$46*BA77</f>
         <v>10789.529399999999</v>
       </c>
-      <c r="X32" s="3">
-        <f t="shared" ref="X32:AB32" si="12">X$27*X58</f>
+      <c r="BB51" s="3">
+        <f t="shared" ref="BB51:BF51" si="63">BB$46*BB77</f>
         <v>12623.749397999998</v>
       </c>
-      <c r="Y32" s="3">
-        <f t="shared" si="12"/>
+      <c r="BC51" s="3">
+        <f t="shared" si="63"/>
         <v>14769.786795659997</v>
       </c>
-      <c r="Z32" s="3">
-        <f t="shared" si="12"/>
+      <c r="BD51" s="3">
+        <f t="shared" si="63"/>
         <v>17280.650550922197</v>
       </c>
-      <c r="AA32" s="3">
-        <f t="shared" si="12"/>
+      <c r="BE51" s="3">
+        <f t="shared" si="63"/>
         <v>20218.361144578965</v>
       </c>
-      <c r="AB32" s="3">
-        <f t="shared" si="12"/>
+      <c r="BF51" s="3">
+        <f t="shared" si="63"/>
         <v>23655.482539157387</v>
       </c>
     </row>
-    <row r="33" spans="2:86" s="94" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="94" t="s">
+    <row r="52" spans="2:116" s="94" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="94" t="s">
         <v>459</v>
       </c>
-      <c r="K33" s="94">
-        <f>SUM(K30:K32)</f>
-        <v>0</v>
-      </c>
-      <c r="L33" s="94">
-        <f t="shared" ref="L33:AB33" si="13">SUM(L30:L32)</f>
+      <c r="E52" s="94">
+        <f>SUM(E49:E51)</f>
+        <v>0</v>
+      </c>
+      <c r="F52" s="94">
+        <f t="shared" ref="F52:P52" si="64">SUM(F49:F51)</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="94">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="94">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="94">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="94">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="94">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="94">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="94">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="94">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="94">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="94">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="94">
+        <f>SUM(Q49:Q51)</f>
+        <v>0</v>
+      </c>
+      <c r="R52" s="94">
+        <f t="shared" ref="R52:AK52" si="65">SUM(R49:R51)</f>
+        <v>0</v>
+      </c>
+      <c r="S52" s="94">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="T52" s="94">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="U52" s="94">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="V52" s="94">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="W52" s="94">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="X52" s="94">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="Y52" s="94">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="Z52" s="94">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="AA52" s="94">
+        <f t="shared" si="65"/>
+        <v>20799</v>
+      </c>
+      <c r="AB52" s="94">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="AC52" s="94">
+        <f t="shared" si="65"/>
+        <v>21760</v>
+      </c>
+      <c r="AD52" s="94">
+        <f t="shared" si="65"/>
+        <v>20850</v>
+      </c>
+      <c r="AE52" s="94">
+        <f t="shared" si="65"/>
+        <v>22121</v>
+      </c>
+      <c r="AF52" s="94">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="AG52" s="94">
+        <f t="shared" si="65"/>
+        <v>21355</v>
+      </c>
+      <c r="AH52" s="94">
+        <f t="shared" si="65"/>
+        <v>21810</v>
+      </c>
+      <c r="AI52" s="94">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="94">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="AK52" s="94">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="AO52" s="94">
+        <f>SUM(AO49:AO51)</f>
+        <v>0</v>
+      </c>
+      <c r="AP52" s="94">
+        <f t="shared" ref="AP52:BF52" si="66">SUM(AP49:AP51)</f>
         <v>18123</v>
       </c>
-      <c r="M33" s="94">
-        <f t="shared" si="13"/>
+      <c r="AQ52" s="94">
+        <f t="shared" si="66"/>
         <v>23814</v>
       </c>
-      <c r="N33" s="94">
-        <f t="shared" si="13"/>
+      <c r="AR52" s="94">
+        <f t="shared" si="66"/>
         <v>27465</v>
       </c>
-      <c r="O33" s="94">
-        <f t="shared" si="13"/>
+      <c r="AS52" s="94">
+        <f t="shared" si="66"/>
         <v>31418</v>
       </c>
-      <c r="P33" s="94">
-        <f t="shared" si="13"/>
+      <c r="AT52" s="94">
+        <f t="shared" si="66"/>
         <v>36358</v>
       </c>
-      <c r="Q33" s="94">
-        <f t="shared" si="13"/>
+      <c r="AU52" s="94">
+        <f t="shared" si="66"/>
         <v>44675</v>
       </c>
-      <c r="R33" s="94">
-        <f t="shared" si="13"/>
+      <c r="AV52" s="94">
+        <f t="shared" si="66"/>
         <v>54033</v>
       </c>
-      <c r="S33" s="94">
-        <f t="shared" si="13"/>
+      <c r="AW52" s="94">
+        <f t="shared" si="66"/>
         <v>56571</v>
       </c>
-      <c r="T33" s="94">
-        <f t="shared" si="13"/>
+      <c r="AX52" s="94">
+        <f t="shared" si="66"/>
         <v>67984</v>
       </c>
-      <c r="U33" s="94">
-        <f t="shared" si="13"/>
+      <c r="AY52" s="94">
+        <f t="shared" si="66"/>
         <v>81791</v>
       </c>
-      <c r="V33" s="94">
-        <f t="shared" si="13"/>
+      <c r="AZ52" s="94">
+        <f t="shared" si="66"/>
         <v>89769</v>
       </c>
-      <c r="W33" s="94">
-        <f t="shared" si="13"/>
+      <c r="BA52" s="94">
+        <f t="shared" si="66"/>
         <v>68333.686199999996</v>
       </c>
-      <c r="X33" s="94">
-        <f t="shared" si="13"/>
+      <c r="BB52" s="94">
+        <f t="shared" si="66"/>
         <v>79950.412853999995</v>
       </c>
-      <c r="Y33" s="94">
-        <f t="shared" si="13"/>
+      <c r="BC52" s="94">
+        <f t="shared" si="66"/>
         <v>93541.983039179977</v>
       </c>
-      <c r="Z33" s="94">
-        <f t="shared" si="13"/>
+      <c r="BD52" s="94">
+        <f t="shared" si="66"/>
         <v>109444.12015584059</v>
       </c>
-      <c r="AA33" s="94">
-        <f t="shared" si="13"/>
+      <c r="BE52" s="94">
+        <f t="shared" si="66"/>
         <v>128049.62058233345</v>
       </c>
-      <c r="AB33" s="94">
-        <f t="shared" si="13"/>
+      <c r="BF52" s="94">
+        <f t="shared" si="66"/>
         <v>149818.05608133011</v>
       </c>
     </row>
-    <row r="34" spans="2:86" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="11" t="s">
+    <row r="53" spans="2:116" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K34" s="11">
-        <f>K29-K33</f>
-        <v>0</v>
-      </c>
-      <c r="L34" s="11">
-        <f t="shared" ref="L34:AB34" si="14">L29-L33</f>
+      <c r="E53" s="11">
+        <f>E48-E52</f>
+        <v>0</v>
+      </c>
+      <c r="F53" s="11">
+        <f t="shared" ref="F53:P53" si="67">F48-F52</f>
+        <v>0</v>
+      </c>
+      <c r="G53" s="11">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="11">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="11">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="11">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="11">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="L53" s="11">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="11">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="N53" s="11">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="O53" s="11">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="P53" s="11">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="11">
+        <f>Q48-Q52</f>
+        <v>0</v>
+      </c>
+      <c r="R53" s="11">
+        <f t="shared" ref="R53:AK53" si="68">R48-R52</f>
+        <v>0</v>
+      </c>
+      <c r="S53" s="11">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="T53" s="11">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="U53" s="11">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="V53" s="11">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="W53" s="11">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="X53" s="11">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="Y53" s="11">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="Z53" s="11">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AA53" s="11">
+        <f t="shared" si="68"/>
+        <v>17135</v>
+      </c>
+      <c r="AB53" s="11">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AC53" s="11">
+        <f t="shared" si="68"/>
+        <v>17415</v>
+      </c>
+      <c r="AD53" s="11">
+        <f t="shared" si="68"/>
+        <v>21838</v>
+      </c>
+      <c r="AE53" s="11">
+        <f t="shared" si="68"/>
+        <v>21343</v>
+      </c>
+      <c r="AF53" s="11">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AG53" s="11">
+        <f t="shared" si="68"/>
+        <v>25472</v>
+      </c>
+      <c r="AH53" s="11">
+        <f t="shared" si="68"/>
+        <v>27425</v>
+      </c>
+      <c r="AI53" s="11">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AJ53" s="11">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AK53" s="11">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AO53" s="11">
+        <f>AO48-AO52</f>
+        <v>0</v>
+      </c>
+      <c r="AP53" s="11">
+        <f t="shared" ref="AP53:BF53" si="69">AP48-AP52</f>
         <v>15403</v>
       </c>
-      <c r="M34" s="11">
-        <f t="shared" si="14"/>
+      <c r="AQ53" s="11">
+        <f t="shared" si="69"/>
         <v>16496</v>
       </c>
-      <c r="N34" s="11">
-        <f t="shared" si="14"/>
+      <c r="AR53" s="11">
+        <f t="shared" si="69"/>
         <v>19360</v>
       </c>
-      <c r="O34" s="11">
-        <f t="shared" si="14"/>
+      <c r="AS53" s="11">
+        <f t="shared" si="69"/>
         <v>23716</v>
       </c>
-      <c r="P34" s="11">
-        <f t="shared" si="14"/>
+      <c r="AT53" s="11">
+        <f t="shared" si="69"/>
         <v>28914</v>
       </c>
-      <c r="Q34" s="11">
-        <f t="shared" si="14"/>
+      <c r="AU53" s="11">
+        <f t="shared" si="69"/>
         <v>32595</v>
       </c>
-      <c r="R34" s="11">
-        <f t="shared" si="14"/>
+      <c r="AV53" s="11">
+        <f t="shared" si="69"/>
         <v>35928</v>
       </c>
-      <c r="S34" s="11">
-        <f t="shared" si="14"/>
+      <c r="AW53" s="11">
+        <f t="shared" si="69"/>
         <v>41224</v>
       </c>
-      <c r="T34" s="11">
-        <f t="shared" si="14"/>
+      <c r="AX53" s="11">
+        <f t="shared" si="69"/>
         <v>78714</v>
       </c>
-      <c r="U34" s="11">
-        <f t="shared" si="14"/>
+      <c r="AY53" s="11">
+        <f t="shared" si="69"/>
         <v>74842</v>
       </c>
-      <c r="V34" s="11">
-        <f t="shared" si="14"/>
+      <c r="AZ53" s="11">
+        <f t="shared" si="69"/>
         <v>84293</v>
       </c>
-      <c r="W34" s="11">
-        <f t="shared" si="14"/>
+      <c r="BA53" s="11">
+        <f t="shared" si="69"/>
         <v>111491.80379999999</v>
       </c>
-      <c r="X34" s="11">
-        <f t="shared" si="14"/>
+      <c r="BB53" s="11">
+        <f t="shared" si="69"/>
         <v>130445.41044599999</v>
       </c>
-      <c r="Y34" s="11">
-        <f t="shared" si="14"/>
+      <c r="BC53" s="11">
+        <f t="shared" si="69"/>
         <v>152621.13022181997</v>
       </c>
-      <c r="Z34" s="11">
-        <f t="shared" si="14"/>
+      <c r="BD53" s="11">
+        <f t="shared" si="69"/>
         <v>178566.72235952935</v>
       </c>
-      <c r="AA34" s="11">
-        <f t="shared" si="14"/>
+      <c r="BE53" s="11">
+        <f t="shared" si="69"/>
         <v>208923.06516064933</v>
       </c>
-      <c r="AB34" s="11">
-        <f t="shared" si="14"/>
+      <c r="BF53" s="11">
+        <f t="shared" si="69"/>
         <v>244439.9862379597</v>
       </c>
     </row>
-    <row r="35" spans="2:86" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="17" t="s">
+    <row r="54" spans="2:116" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="17" t="s">
         <v>1871</v>
       </c>
-      <c r="L35" s="17">
+      <c r="AA54" s="17">
+        <v>-902</v>
+      </c>
+      <c r="AC54" s="17">
+        <v>790</v>
+      </c>
+      <c r="AD54" s="17">
+        <v>65</v>
+      </c>
+      <c r="AE54" s="17">
+        <v>-146</v>
+      </c>
+      <c r="AG54" s="17">
+        <v>2843</v>
+      </c>
+      <c r="AH54" s="17">
+        <v>126</v>
+      </c>
+      <c r="AP54" s="17">
         <v>496</v>
       </c>
-      <c r="M35" s="17">
+      <c r="AQ54" s="17">
         <v>763</v>
       </c>
-      <c r="N35" s="17">
+      <c r="AR54" s="17">
         <v>291</v>
       </c>
-      <c r="O35" s="17">
+      <c r="AS54" s="17">
         <v>434</v>
       </c>
-      <c r="P35" s="17">
+      <c r="AT54" s="17">
         <f>-2736+1015</f>
         <v>-1721</v>
       </c>
-      <c r="Q35" s="17">
+      <c r="AU54" s="17">
         <f>-5071+7389</f>
         <v>2318</v>
       </c>
-      <c r="R35" s="17">
+      <c r="AV54" s="17">
         <f>-1697+5394</f>
         <v>3697</v>
       </c>
-      <c r="S35" s="17">
+      <c r="AW54" s="17">
         <v>6858</v>
       </c>
-      <c r="T35" s="17">
+      <c r="AX54" s="17">
         <v>12020</v>
       </c>
-      <c r="U35" s="17">
+      <c r="AY54" s="17">
         <v>-3514</v>
       </c>
-      <c r="V35" s="17">
+      <c r="AZ54" s="17">
         <v>1424</v>
       </c>
-      <c r="W35" s="17">
-        <v>0</v>
-      </c>
-      <c r="X35" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="3" t="s">
+      <c r="BA54" s="17">
+        <v>0</v>
+      </c>
+      <c r="BB54" s="17">
+        <v>0</v>
+      </c>
+      <c r="BC54" s="17">
+        <v>0</v>
+      </c>
+      <c r="BD54" s="17">
+        <v>0</v>
+      </c>
+      <c r="BE54" s="17">
+        <v>0</v>
+      </c>
+      <c r="BF54" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:116" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="K36" s="3">
-        <f>K34+K35</f>
-        <v>0</v>
-      </c>
-      <c r="L36" s="3">
-        <f t="shared" ref="L36:U36" si="15">L34+L35</f>
+      <c r="E55" s="3">
+        <f>E53+E54</f>
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <f t="shared" ref="F55:P55" si="70">F53+F54</f>
+        <v>0</v>
+      </c>
+      <c r="G55" s="3">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="3">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="3">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="3">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="3">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="L55" s="3">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="3">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="N55" s="3">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="O55" s="3">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="P55" s="3">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="3">
+        <f>Q53+Q54</f>
+        <v>0</v>
+      </c>
+      <c r="R55" s="3">
+        <f t="shared" ref="R55:AK55" si="71">R53+R54</f>
+        <v>0</v>
+      </c>
+      <c r="S55" s="3">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="T55" s="3">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="U55" s="3">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="V55" s="3">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="W55" s="3">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="X55" s="3">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="Y55" s="3">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="Z55" s="3">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="AA55" s="3">
+        <f t="shared" si="71"/>
+        <v>16233</v>
+      </c>
+      <c r="AB55" s="3">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="AC55" s="3">
+        <f t="shared" si="71"/>
+        <v>18205</v>
+      </c>
+      <c r="AD55" s="3">
+        <f t="shared" si="71"/>
+        <v>21903</v>
+      </c>
+      <c r="AE55" s="3">
+        <f t="shared" si="71"/>
+        <v>21197</v>
+      </c>
+      <c r="AF55" s="3">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="AG55" s="3">
+        <f t="shared" si="71"/>
+        <v>28315</v>
+      </c>
+      <c r="AH55" s="3">
+        <f t="shared" si="71"/>
+        <v>27551</v>
+      </c>
+      <c r="AI55" s="3">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="AJ55" s="3">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="AK55" s="3">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="AO55" s="3">
+        <f>AO53+AO54</f>
+        <v>0</v>
+      </c>
+      <c r="AP55" s="3">
+        <f t="shared" ref="AP55:AY55" si="72">AP53+AP54</f>
         <v>15899</v>
       </c>
-      <c r="M36" s="3">
-        <f t="shared" si="15"/>
+      <c r="AQ55" s="3">
+        <f t="shared" si="72"/>
         <v>17259</v>
       </c>
-      <c r="N36" s="3">
-        <f t="shared" si="15"/>
+      <c r="AR55" s="3">
+        <f t="shared" si="72"/>
         <v>19651</v>
       </c>
-      <c r="O36" s="3">
-        <f t="shared" si="15"/>
+      <c r="AS55" s="3">
+        <f t="shared" si="72"/>
         <v>24150</v>
       </c>
-      <c r="P36" s="3">
-        <f t="shared" si="15"/>
+      <c r="AT55" s="3">
+        <f t="shared" si="72"/>
         <v>27193</v>
       </c>
-      <c r="Q36" s="3">
-        <f t="shared" si="15"/>
+      <c r="AU55" s="3">
+        <f t="shared" si="72"/>
         <v>34913</v>
       </c>
-      <c r="R36" s="3">
-        <f t="shared" si="15"/>
+      <c r="AV55" s="3">
+        <f t="shared" si="72"/>
         <v>39625</v>
       </c>
-      <c r="S36" s="3">
-        <f t="shared" si="15"/>
+      <c r="AW55" s="3">
+        <f t="shared" si="72"/>
         <v>48082</v>
       </c>
-      <c r="T36" s="3">
-        <f t="shared" si="15"/>
+      <c r="AX55" s="3">
+        <f t="shared" si="72"/>
         <v>90734</v>
       </c>
-      <c r="U36" s="3">
-        <f t="shared" si="15"/>
+      <c r="AY55" s="3">
+        <f t="shared" si="72"/>
         <v>71328</v>
       </c>
-      <c r="V36" s="3">
-        <f>V34+V35</f>
+      <c r="AZ55" s="3">
+        <f>AZ53+AZ54</f>
         <v>85717</v>
       </c>
-      <c r="W36" s="3">
-        <f t="shared" ref="W36:AB36" si="16">W34+W35</f>
+      <c r="BA55" s="3">
+        <f t="shared" ref="BA55:BF55" si="73">BA53+BA54</f>
         <v>111491.80379999999</v>
       </c>
-      <c r="X36" s="3">
-        <f t="shared" si="16"/>
+      <c r="BB55" s="3">
+        <f t="shared" si="73"/>
         <v>130445.41044599999</v>
       </c>
-      <c r="Y36" s="3">
-        <f t="shared" si="16"/>
+      <c r="BC55" s="3">
+        <f t="shared" si="73"/>
         <v>152621.13022181997</v>
       </c>
-      <c r="Z36" s="3">
-        <f t="shared" si="16"/>
+      <c r="BD55" s="3">
+        <f t="shared" si="73"/>
         <v>178566.72235952935</v>
       </c>
-      <c r="AA36" s="3">
-        <f t="shared" si="16"/>
+      <c r="BE55" s="3">
+        <f t="shared" si="73"/>
         <v>208923.06516064933</v>
       </c>
-      <c r="AB36" s="3">
-        <f t="shared" si="16"/>
+      <c r="BF55" s="3">
+        <f t="shared" si="73"/>
         <v>244439.9862379597</v>
       </c>
     </row>
-    <row r="37" spans="2:86" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="17" t="s">
+    <row r="56" spans="2:116" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="17" t="s">
         <v>1870</v>
       </c>
-      <c r="L37" s="17">
+      <c r="AA56" s="17">
+        <v>2323</v>
+      </c>
+      <c r="AC56" s="17">
+        <v>3154</v>
+      </c>
+      <c r="AD56" s="17">
+        <v>3535</v>
+      </c>
+      <c r="AE56" s="17">
+        <v>1508</v>
+      </c>
+      <c r="AG56" s="17">
+        <v>4653</v>
+      </c>
+      <c r="AH56" s="17">
+        <v>3932</v>
+      </c>
+      <c r="AP56" s="17">
         <v>2739</v>
       </c>
-      <c r="M37" s="17">
+      <c r="AQ56" s="17">
         <v>3639</v>
       </c>
-      <c r="N37" s="17">
+      <c r="AR56" s="17">
         <v>3303</v>
       </c>
-      <c r="O37" s="17">
+      <c r="AS56" s="17">
         <v>4672</v>
       </c>
-      <c r="P37" s="17">
+      <c r="AT56" s="17">
         <v>14531</v>
       </c>
-      <c r="Q37" s="17">
+      <c r="AU56" s="17">
         <v>4177</v>
       </c>
-      <c r="R37" s="17">
+      <c r="AV56" s="17">
         <v>5282</v>
       </c>
-      <c r="S37" s="17">
+      <c r="AW56" s="17">
         <v>7813</v>
       </c>
-      <c r="T37" s="17">
+      <c r="AX56" s="17">
         <v>14701</v>
       </c>
-      <c r="U37" s="17">
+      <c r="AY56" s="17">
         <v>11356</v>
       </c>
-      <c r="V37" s="17">
+      <c r="AZ56" s="17">
         <v>11922</v>
       </c>
-      <c r="W37" s="17">
-        <f>W36*W53</f>
+      <c r="BA56" s="17">
+        <f>BA55*BA72</f>
         <v>22298.36076</v>
       </c>
-      <c r="X37" s="17">
-        <f t="shared" ref="X37:AB37" si="17">X36*X53</f>
+      <c r="BB56" s="17">
+        <f t="shared" ref="BB56:BF56" si="74">BB55*BB72</f>
         <v>26089.082089200001</v>
       </c>
-      <c r="Y37" s="17">
-        <f t="shared" si="17"/>
+      <c r="BC56" s="17">
+        <f t="shared" si="74"/>
         <v>30524.226044363997</v>
       </c>
-      <c r="Z37" s="17">
-        <f t="shared" si="17"/>
+      <c r="BD56" s="17">
+        <f t="shared" si="74"/>
         <v>35713.344471905868</v>
       </c>
-      <c r="AA37" s="17">
-        <f t="shared" si="17"/>
+      <c r="BE56" s="17">
+        <f t="shared" si="74"/>
         <v>41784.61303212987</v>
       </c>
-      <c r="AB37" s="17">
-        <f t="shared" si="17"/>
+      <c r="BF56" s="17">
+        <f t="shared" si="74"/>
         <v>48887.997247591942</v>
       </c>
     </row>
-    <row r="38" spans="2:86" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="11" t="s">
+    <row r="57" spans="2:116" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="K38" s="11">
-        <f>K36-K37</f>
-        <v>0</v>
-      </c>
-      <c r="L38" s="11">
-        <f t="shared" ref="L38:U38" si="18">L36-L37</f>
+      <c r="E57" s="11">
+        <f>E55-E56</f>
+        <v>0</v>
+      </c>
+      <c r="F57" s="11">
+        <f t="shared" ref="F57:P57" si="75">F55-F56</f>
+        <v>0</v>
+      </c>
+      <c r="G57" s="11">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="11">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="11">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="11">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="11">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="L57" s="11">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="11">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="N57" s="11">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="O57" s="11">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="P57" s="11">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="11">
+        <f>Q55-Q56</f>
+        <v>0</v>
+      </c>
+      <c r="R57" s="11">
+        <f t="shared" ref="R57:AK57" si="76">R55-R56</f>
+        <v>0</v>
+      </c>
+      <c r="S57" s="11">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="T57" s="11">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="U57" s="11">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V57" s="11">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="W57" s="11">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="X57" s="11">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="Y57" s="11">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="Z57" s="11">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AA57" s="11">
+        <f t="shared" si="76"/>
+        <v>13910</v>
+      </c>
+      <c r="AB57" s="11">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AC57" s="11">
+        <f t="shared" si="76"/>
+        <v>15051</v>
+      </c>
+      <c r="AD57" s="11">
+        <f t="shared" si="76"/>
+        <v>18368</v>
+      </c>
+      <c r="AE57" s="11">
+        <f t="shared" si="76"/>
+        <v>19689</v>
+      </c>
+      <c r="AF57" s="11">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AG57" s="11">
+        <f t="shared" si="76"/>
+        <v>23662</v>
+      </c>
+      <c r="AH57" s="11">
+        <f t="shared" si="76"/>
+        <v>23619</v>
+      </c>
+      <c r="AI57" s="11">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AJ57" s="11">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AK57" s="11">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AO57" s="11">
+        <f>AO55-AO56</f>
+        <v>0</v>
+      </c>
+      <c r="AP57" s="11">
+        <f t="shared" ref="AP57:AY57" si="77">AP55-AP56</f>
         <v>13160</v>
       </c>
-      <c r="M38" s="11">
-        <f t="shared" si="18"/>
+      <c r="AQ57" s="11">
+        <f t="shared" si="77"/>
         <v>13620</v>
       </c>
-      <c r="N38" s="11">
-        <f t="shared" si="18"/>
+      <c r="AR57" s="11">
+        <f t="shared" si="77"/>
         <v>16348</v>
       </c>
-      <c r="O38" s="11">
-        <f t="shared" si="18"/>
+      <c r="AS57" s="11">
+        <f t="shared" si="77"/>
         <v>19478</v>
       </c>
-      <c r="P38" s="11">
-        <f t="shared" si="18"/>
+      <c r="AT57" s="11">
+        <f t="shared" si="77"/>
         <v>12662</v>
       </c>
-      <c r="Q38" s="11">
-        <f t="shared" si="18"/>
+      <c r="AU57" s="11">
+        <f t="shared" si="77"/>
         <v>30736</v>
       </c>
-      <c r="R38" s="11">
-        <f t="shared" si="18"/>
+      <c r="AV57" s="11">
+        <f t="shared" si="77"/>
         <v>34343</v>
       </c>
-      <c r="S38" s="11">
-        <f t="shared" si="18"/>
+      <c r="AW57" s="11">
+        <f t="shared" si="77"/>
         <v>40269</v>
       </c>
-      <c r="T38" s="11">
-        <f t="shared" si="18"/>
+      <c r="AX57" s="11">
+        <f t="shared" si="77"/>
         <v>76033</v>
       </c>
-      <c r="U38" s="11">
-        <f t="shared" si="18"/>
+      <c r="AY57" s="11">
+        <f t="shared" si="77"/>
         <v>59972</v>
       </c>
-      <c r="V38" s="11">
-        <f>V36-V37</f>
+      <c r="AZ57" s="11">
+        <f>AZ55-AZ56</f>
         <v>73795</v>
       </c>
-      <c r="W38" s="11">
-        <f t="shared" ref="W38:AB38" si="19">W36-W37</f>
+      <c r="BA57" s="11">
+        <f t="shared" ref="BA57:BF57" si="78">BA55-BA56</f>
         <v>89193.443039999998</v>
       </c>
-      <c r="X38" s="11">
-        <f t="shared" si="19"/>
+      <c r="BB57" s="11">
+        <f t="shared" si="78"/>
         <v>104356.32835679999</v>
       </c>
-      <c r="Y38" s="11">
-        <f t="shared" si="19"/>
+      <c r="BC57" s="11">
+        <f t="shared" si="78"/>
         <v>122096.90417745597</v>
       </c>
-      <c r="Z38" s="11">
-        <f t="shared" si="19"/>
+      <c r="BD57" s="11">
+        <f t="shared" si="78"/>
         <v>142853.37788762347</v>
       </c>
-      <c r="AA38" s="11">
-        <f t="shared" si="19"/>
+      <c r="BE57" s="11">
+        <f t="shared" si="78"/>
         <v>167138.45212851948</v>
       </c>
-      <c r="AB38" s="11">
-        <f t="shared" si="19"/>
+      <c r="BF57" s="11">
+        <f t="shared" si="78"/>
         <v>195551.98899036777</v>
       </c>
-      <c r="AC38" s="11">
-        <f>AB38*(1+$AD$59)</f>
+      <c r="BG57" s="11">
+        <f>BF57*(1+$BH$78)</f>
         <v>197507.50888027146</v>
       </c>
-      <c r="AD38" s="11">
-        <f t="shared" ref="AD38:CH38" si="20">AC38*(1+$AD$59)</f>
+      <c r="BH57" s="11">
+        <f t="shared" ref="BH57:DL57" si="79">BG57*(1+$BH$78)</f>
         <v>199482.58396907419</v>
       </c>
-      <c r="AE38" s="11">
-        <f t="shared" si="20"/>
+      <c r="BI57" s="11">
+        <f t="shared" si="79"/>
         <v>201477.40980876493</v>
       </c>
-      <c r="AF38" s="11">
-        <f t="shared" si="20"/>
+      <c r="BJ57" s="11">
+        <f t="shared" si="79"/>
         <v>203492.18390685259</v>
       </c>
-      <c r="AG38" s="11">
-        <f t="shared" si="20"/>
+      <c r="BK57" s="11">
+        <f t="shared" si="79"/>
         <v>205527.10574592112</v>
       </c>
-      <c r="AH38" s="11">
-        <f t="shared" si="20"/>
+      <c r="BL57" s="11">
+        <f t="shared" si="79"/>
         <v>207582.37680338032</v>
       </c>
-      <c r="AI38" s="11">
-        <f t="shared" si="20"/>
+      <c r="BM57" s="11">
+        <f t="shared" si="79"/>
         <v>209658.20057141411</v>
       </c>
-      <c r="AJ38" s="11">
-        <f t="shared" si="20"/>
+      <c r="BN57" s="11">
+        <f t="shared" si="79"/>
         <v>211754.78257712827</v>
       </c>
-      <c r="AK38" s="11">
-        <f t="shared" si="20"/>
+      <c r="BO57" s="11">
+        <f t="shared" si="79"/>
         <v>213872.33040289956</v>
       </c>
-      <c r="AL38" s="11">
-        <f t="shared" si="20"/>
+      <c r="BP57" s="11">
+        <f t="shared" si="79"/>
         <v>216011.05370692856</v>
       </c>
-      <c r="AM38" s="11">
-        <f t="shared" si="20"/>
+      <c r="BQ57" s="11">
+        <f t="shared" si="79"/>
         <v>218171.16424399786</v>
       </c>
-      <c r="AN38" s="11">
-        <f t="shared" si="20"/>
+      <c r="BR57" s="11">
+        <f t="shared" si="79"/>
         <v>220352.87588643783</v>
       </c>
-      <c r="AO38" s="11">
-        <f t="shared" si="20"/>
+      <c r="BS57" s="11">
+        <f t="shared" si="79"/>
         <v>222556.40464530222</v>
       </c>
-      <c r="AP38" s="11">
-        <f t="shared" si="20"/>
+      <c r="BT57" s="11">
+        <f t="shared" si="79"/>
         <v>224781.96869175523</v>
       </c>
-      <c r="AQ38" s="11">
-        <f t="shared" si="20"/>
+      <c r="BU57" s="11">
+        <f t="shared" si="79"/>
         <v>227029.78837867279</v>
       </c>
-      <c r="AR38" s="11">
-        <f t="shared" si="20"/>
+      <c r="BV57" s="11">
+        <f t="shared" si="79"/>
         <v>229300.08626245952</v>
       </c>
-      <c r="AS38" s="11">
-        <f t="shared" si="20"/>
+      <c r="BW57" s="11">
+        <f t="shared" si="79"/>
         <v>231593.0871250841</v>
       </c>
-      <c r="AT38" s="11">
-        <f t="shared" si="20"/>
+      <c r="BX57" s="11">
+        <f t="shared" si="79"/>
         <v>233909.01799633494</v>
       </c>
-      <c r="AU38" s="11">
-        <f t="shared" si="20"/>
+      <c r="BY57" s="11">
+        <f t="shared" si="79"/>
         <v>236248.10817629829</v>
       </c>
-      <c r="AV38" s="11">
-        <f t="shared" si="20"/>
+      <c r="BZ57" s="11">
+        <f t="shared" si="79"/>
         <v>238610.58925806129</v>
       </c>
-      <c r="AW38" s="11">
-        <f t="shared" si="20"/>
+      <c r="CA57" s="11">
+        <f t="shared" si="79"/>
         <v>240996.6951506419</v>
       </c>
-      <c r="AX38" s="11">
-        <f t="shared" si="20"/>
+      <c r="CB57" s="11">
+        <f t="shared" si="79"/>
         <v>243406.66210214832</v>
       </c>
-      <c r="AY38" s="11">
-        <f t="shared" si="20"/>
+      <c r="CC57" s="11">
+        <f t="shared" si="79"/>
         <v>245840.7287231698</v>
       </c>
-      <c r="AZ38" s="11">
-        <f t="shared" si="20"/>
+      <c r="CD57" s="11">
+        <f t="shared" si="79"/>
         <v>248299.1360104015</v>
       </c>
-      <c r="BA38" s="11">
-        <f t="shared" si="20"/>
+      <c r="CE57" s="11">
+        <f t="shared" si="79"/>
         <v>250782.12737050554</v>
       </c>
-      <c r="BB38" s="11">
-        <f t="shared" si="20"/>
+      <c r="CF57" s="11">
+        <f t="shared" si="79"/>
         <v>253289.94864421058</v>
       </c>
-      <c r="BC38" s="11">
-        <f t="shared" si="20"/>
+      <c r="CG57" s="11">
+        <f t="shared" si="79"/>
         <v>255822.84813065268</v>
       </c>
-      <c r="BD38" s="11">
-        <f t="shared" si="20"/>
+      <c r="CH57" s="11">
+        <f t="shared" si="79"/>
         <v>258381.0766119592</v>
       </c>
-      <c r="BE38" s="11">
-        <f t="shared" si="20"/>
+      <c r="CI57" s="11">
+        <f t="shared" si="79"/>
         <v>260964.8873780788</v>
       </c>
-      <c r="BF38" s="11">
-        <f t="shared" si="20"/>
+      <c r="CJ57" s="11">
+        <f t="shared" si="79"/>
         <v>263574.53625185956</v>
       </c>
-      <c r="BG38" s="11">
-        <f t="shared" si="20"/>
+      <c r="CK57" s="11">
+        <f t="shared" si="79"/>
         <v>266210.28161437815</v>
       </c>
-      <c r="BH38" s="11">
-        <f t="shared" si="20"/>
+      <c r="CL57" s="11">
+        <f t="shared" si="79"/>
         <v>268872.38443052192</v>
       </c>
-      <c r="BI38" s="11">
-        <f t="shared" si="20"/>
+      <c r="CM57" s="11">
+        <f t="shared" si="79"/>
         <v>271561.10827482713</v>
       </c>
-      <c r="BJ38" s="11">
-        <f t="shared" si="20"/>
+      <c r="CN57" s="11">
+        <f t="shared" si="79"/>
         <v>274276.71935757541</v>
       </c>
-      <c r="BK38" s="11">
-        <f t="shared" si="20"/>
+      <c r="CO57" s="11">
+        <f t="shared" si="79"/>
         <v>277019.48655115115</v>
       </c>
-      <c r="BL38" s="11">
-        <f t="shared" si="20"/>
+      <c r="CP57" s="11">
+        <f t="shared" si="79"/>
         <v>279789.68141666264</v>
       </c>
-      <c r="BM38" s="11">
-        <f t="shared" si="20"/>
+      <c r="CQ57" s="11">
+        <f t="shared" si="79"/>
         <v>282587.57823082927</v>
       </c>
-      <c r="BN38" s="11">
-        <f t="shared" si="20"/>
+      <c r="CR57" s="11">
+        <f t="shared" si="79"/>
         <v>285413.45401313755</v>
       </c>
-      <c r="BO38" s="11">
-        <f t="shared" si="20"/>
+      <c r="CS57" s="11">
+        <f t="shared" si="79"/>
         <v>288267.58855326893</v>
       </c>
-      <c r="BP38" s="11">
-        <f t="shared" si="20"/>
+      <c r="CT57" s="11">
+        <f t="shared" si="79"/>
         <v>291150.26443880162</v>
       </c>
-      <c r="BQ38" s="11">
-        <f t="shared" si="20"/>
+      <c r="CU57" s="11">
+        <f t="shared" si="79"/>
         <v>294061.76708318962</v>
       </c>
-      <c r="BR38" s="11">
-        <f t="shared" si="20"/>
+      <c r="CV57" s="11">
+        <f t="shared" si="79"/>
         <v>297002.38475402154</v>
       </c>
-      <c r="BS38" s="11">
-        <f t="shared" si="20"/>
+      <c r="CW57" s="11">
+        <f t="shared" si="79"/>
         <v>299972.40860156174</v>
       </c>
-      <c r="BT38" s="11">
-        <f t="shared" si="20"/>
+      <c r="CX57" s="11">
+        <f t="shared" si="79"/>
         <v>302972.13268757734</v>
       </c>
-      <c r="BU38" s="11">
-        <f t="shared" si="20"/>
+      <c r="CY57" s="11">
+        <f t="shared" si="79"/>
         <v>306001.85401445313</v>
       </c>
-      <c r="BV38" s="11">
-        <f t="shared" si="20"/>
+      <c r="CZ57" s="11">
+        <f t="shared" si="79"/>
         <v>309061.87255459768</v>
       </c>
-      <c r="BW38" s="11">
-        <f t="shared" si="20"/>
+      <c r="DA57" s="11">
+        <f t="shared" si="79"/>
         <v>312152.49128014367</v>
       </c>
-      <c r="BX38" s="11">
-        <f t="shared" si="20"/>
+      <c r="DB57" s="11">
+        <f t="shared" si="79"/>
         <v>315274.01619294513</v>
       </c>
-      <c r="BY38" s="11">
-        <f t="shared" si="20"/>
+      <c r="DC57" s="11">
+        <f t="shared" si="79"/>
         <v>318426.75635487458</v>
       </c>
-      <c r="BZ38" s="11">
-        <f t="shared" si="20"/>
+      <c r="DD57" s="11">
+        <f t="shared" si="79"/>
         <v>321611.02391842334</v>
       </c>
-      <c r="CA38" s="11">
-        <f t="shared" si="20"/>
+      <c r="DE57" s="11">
+        <f t="shared" si="79"/>
         <v>324827.13415760756</v>
       </c>
-      <c r="CB38" s="11">
-        <f t="shared" si="20"/>
+      <c r="DF57" s="11">
+        <f t="shared" si="79"/>
         <v>328075.40549918363</v>
       </c>
-      <c r="CC38" s="11">
-        <f t="shared" si="20"/>
+      <c r="DG57" s="11">
+        <f t="shared" si="79"/>
         <v>331356.15955417545</v>
       </c>
-      <c r="CD38" s="11">
-        <f t="shared" si="20"/>
+      <c r="DH57" s="11">
+        <f t="shared" si="79"/>
         <v>334669.72114971722</v>
       </c>
-      <c r="CE38" s="11">
-        <f t="shared" si="20"/>
+      <c r="DI57" s="11">
+        <f t="shared" si="79"/>
         <v>338016.4183612144</v>
       </c>
-      <c r="CF38" s="11">
-        <f t="shared" si="20"/>
+      <c r="DJ57" s="11">
+        <f t="shared" si="79"/>
         <v>341396.58254482655</v>
       </c>
-      <c r="CG38" s="11">
-        <f t="shared" si="20"/>
+      <c r="DK57" s="11">
+        <f t="shared" si="79"/>
         <v>344810.54837027483</v>
       </c>
-      <c r="CH38" s="11">
-        <f t="shared" si="20"/>
+      <c r="DL57" s="11">
+        <f t="shared" si="79"/>
         <v>348258.65385397756</v>
       </c>
     </row>
-    <row r="40" spans="2:86" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="21" t="s">
+    <row r="59" spans="2:116" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="K40" s="21" t="e">
-        <f>K38/K41</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L40" s="21">
+      <c r="E59" s="21" t="e">
+        <f>E57/E60</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F59" s="21" t="e">
+        <f t="shared" ref="F59:P59" si="80">F57/F60</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G59" s="21" t="e">
+        <f t="shared" si="80"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H59" s="21" t="e">
+        <f t="shared" si="80"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I59" s="21" t="e">
+        <f t="shared" si="80"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J59" s="21" t="e">
+        <f t="shared" si="80"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K59" s="21" t="e">
+        <f t="shared" si="80"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L59" s="21" t="e">
+        <f t="shared" si="80"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M59" s="21" t="e">
+        <f t="shared" si="80"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N59" s="21" t="e">
+        <f t="shared" si="80"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O59" s="21" t="e">
+        <f t="shared" si="80"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P59" s="21" t="e">
+        <f t="shared" si="80"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q59" s="21" t="e">
+        <f>Q57/Q60</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R59" s="21" t="e">
+        <f t="shared" ref="R59:AK59" si="81">R57/R60</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S59" s="21" t="e">
+        <f t="shared" si="81"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T59" s="21" t="e">
+        <f t="shared" si="81"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U59" s="21" t="e">
+        <f t="shared" si="81"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V59" s="21" t="e">
+        <f t="shared" si="81"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W59" s="21" t="e">
+        <f t="shared" si="81"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X59" s="21" t="e">
+        <f t="shared" si="81"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y59" s="21" t="e">
+        <f t="shared" si="81"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z59" s="21" t="e">
+        <f t="shared" si="81"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA59" s="21" t="e">
+        <f t="shared" si="81"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB59" s="21" t="e">
+        <f t="shared" si="81"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC59" s="21" t="e">
+        <f t="shared" si="81"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD59" s="21" t="e">
+        <f t="shared" si="81"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE59" s="21" t="e">
+        <f t="shared" si="81"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF59" s="21" t="e">
+        <f t="shared" si="81"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG59" s="21" t="e">
+        <f t="shared" si="81"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH59" s="21">
+        <f t="shared" si="81"/>
+        <v>1.9186839967506093</v>
+      </c>
+      <c r="AI59" s="21" t="e">
+        <f t="shared" si="81"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ59" s="21" t="e">
+        <f t="shared" si="81"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK59" s="21" t="e">
+        <f t="shared" si="81"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO59" s="21" t="e">
+        <f>AO57/AO60</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP59" s="21">
         <v>0.95650000000000002</v>
       </c>
-      <c r="M40" s="21">
+      <c r="AQ59" s="21">
         <v>1.0449999999999999</v>
       </c>
-      <c r="N40" s="21">
-        <f t="shared" ref="L40:U40" si="21">N38/N41</f>
+      <c r="AR59" s="21">
+        <f t="shared" ref="AR59:AY59" si="82">AR57/AR60</f>
         <v>1.1875294582379763</v>
       </c>
-      <c r="O40" s="21">
-        <f t="shared" si="21"/>
+      <c r="AS59" s="21">
+        <f t="shared" si="82"/>
         <v>1.4085498530621012</v>
       </c>
-      <c r="P40" s="21">
-        <f t="shared" si="21"/>
+      <c r="AT59" s="21">
+        <f t="shared" si="82"/>
         <v>0.9105454466377868</v>
       </c>
-      <c r="Q40" s="21">
-        <f t="shared" si="21"/>
+      <c r="AU59" s="21">
+        <f t="shared" si="82"/>
         <v>2.2106301401214412</v>
       </c>
-      <c r="R40" s="21">
-        <f t="shared" si="21"/>
+      <c r="AV59" s="21">
+        <f t="shared" si="82"/>
         <v>2.4984500995793466</v>
       </c>
-      <c r="S40" s="21">
-        <f t="shared" si="21"/>
+      <c r="AW59" s="21">
+        <f t="shared" si="82"/>
         <v>2.9867089338628392</v>
       </c>
-      <c r="T40" s="21">
-        <f t="shared" si="21"/>
+      <c r="AX59" s="21">
+        <f t="shared" si="82"/>
         <v>5.7516189866028453</v>
       </c>
-      <c r="U40" s="21">
-        <f t="shared" si="21"/>
+      <c r="AY59" s="21">
+        <f t="shared" si="82"/>
         <v>4.6827516202076991</v>
       </c>
-      <c r="V40" s="21">
-        <f>V38/V41</f>
+      <c r="AZ59" s="21">
+        <f>AZ57/AZ60</f>
         <v>5.935413818064827</v>
       </c>
     </row>
-    <row r="41" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="3" t="s">
+    <row r="60" spans="2:116" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N41" s="3">
-        <f>N42*20</f>
+      <c r="AH60" s="3">
+        <f>5859+866+5585</f>
+        <v>12310</v>
+      </c>
+      <c r="AR60" s="3">
+        <f t="shared" ref="AR60:AX60" si="83">AR61*20</f>
         <v>13766.395339999999</v>
       </c>
-      <c r="O41" s="3">
-        <f>O42*20</f>
+      <c r="AS60" s="3">
+        <f t="shared" si="83"/>
         <v>13828.40654</v>
       </c>
-      <c r="P41" s="3">
-        <f>P42*20</f>
+      <c r="AT60" s="3">
+        <f t="shared" si="83"/>
         <v>13905.9506</v>
       </c>
-      <c r="Q41" s="3">
-        <f>Q42*20</f>
+      <c r="AU60" s="3">
+        <f t="shared" si="83"/>
         <v>13903.727920000001</v>
       </c>
-      <c r="R41" s="3">
-        <f>R42*20</f>
+      <c r="AV60" s="3">
+        <f t="shared" si="83"/>
         <v>13745.721800000001</v>
       </c>
-      <c r="S41" s="3">
-        <f>S42*20</f>
+      <c r="AW60" s="3">
+        <f t="shared" si="83"/>
         <v>13482.7333</v>
       </c>
-      <c r="T41" s="3">
-        <f>T42*20</f>
+      <c r="AX60" s="3">
+        <f t="shared" si="83"/>
         <v>13219.40834</v>
       </c>
-      <c r="U41" s="3">
+      <c r="AY60" s="3">
         <f>5956+883+5968</f>
         <v>12807</v>
       </c>
-      <c r="V41" s="3">
+      <c r="AZ60" s="3">
         <f>5893+869+5671</f>
         <v>12433</v>
       </c>
     </row>
-    <row r="42" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="N42" s="3">
+    <row r="61" spans="2:116" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AR61" s="3">
         <f>292.580627+50.199837+345.539303</f>
         <v>688.31976699999996</v>
       </c>
-      <c r="O42" s="3">
+      <c r="AS61" s="3">
         <f>297.117506+47.369687+346.933134</f>
         <v>691.42032700000004</v>
       </c>
-      <c r="P42" s="3">
+      <c r="AT61" s="3">
         <f>298.492525+46.961288+349.843717</f>
         <v>695.29753000000005</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="AU61" s="3">
         <f>299.360029+46.535019+349.291348</f>
         <v>695.18639600000006</v>
       </c>
-      <c r="R42" s="3">
+      <c r="AV61" s="3">
         <f>299.895185+46.411073+340.979832</f>
         <v>687.28609000000006</v>
       </c>
-      <c r="S42" s="3">
+      <c r="AW61" s="3">
         <f>300.737081+45.843112+327.556472</f>
         <v>674.13666499999999</v>
       </c>
-      <c r="T42" s="3">
+      <c r="AX61" s="3">
         <f>300.754+44.576938+315.639479</f>
         <v>660.970417</v>
       </c>
     </row>
-    <row r="45" spans="2:86" s="45" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="45" t="s">
+    <row r="64" spans="2:116" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="45" t="s">
         <v>1872</v>
       </c>
     </row>
-    <row r="46" spans="2:86" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="8" t="s">
+    <row r="65" spans="2:62" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="K46" s="8" t="e">
-        <f>K27/J27-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L46" s="8" t="e">
-        <f t="shared" ref="L46:U46" si="22">L27/K27-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M46" s="8">
-        <f t="shared" si="22"/>
+      <c r="E65" s="8" t="e">
+        <f>E46/D46-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F65" s="8" t="e">
+        <f t="shared" ref="F65:P65" si="84">F46/E46-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G65" s="8" t="e">
+        <f t="shared" si="84"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H65" s="8" t="e">
+        <f t="shared" si="84"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I65" s="8" t="e">
+        <f t="shared" si="84"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J65" s="8" t="e">
+        <f t="shared" si="84"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K65" s="8" t="e">
+        <f t="shared" si="84"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L65" s="8" t="e">
+        <f t="shared" si="84"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M65" s="8" t="e">
+        <f t="shared" si="84"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N65" s="8" t="e">
+        <f t="shared" si="84"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O65" s="8" t="e">
+        <f t="shared" si="84"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P65" s="8" t="e">
+        <f t="shared" si="84"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q65" s="8" t="e">
+        <f>Q46/P46-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R65" s="8" t="e">
+        <f t="shared" ref="R65:AK65" si="85">R46/Q46-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S65" s="8" t="e">
+        <f t="shared" si="85"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T65" s="8" t="e">
+        <f t="shared" si="85"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U65" s="8" t="e">
+        <f t="shared" si="85"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V65" s="8" t="e">
+        <f t="shared" si="85"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W65" s="8" t="e">
+        <f t="shared" si="85"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X65" s="8" t="e">
+        <f t="shared" si="85"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y65" s="8" t="e">
+        <f t="shared" si="85"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z65" s="8" t="e">
+        <f t="shared" si="85"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA65" s="8" t="e">
+        <f t="shared" si="85"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB65" s="8">
+        <f t="shared" si="85"/>
+        <v>-1</v>
+      </c>
+      <c r="AC65" s="8" t="e">
+        <f t="shared" si="85"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD65" s="8">
+        <f t="shared" si="85"/>
+        <v>6.9024316849843004E-2</v>
+      </c>
+      <c r="AE65" s="8">
+        <f t="shared" si="85"/>
+        <v>2.8001179561417677E-2</v>
+      </c>
+      <c r="AF65" s="8">
+        <f t="shared" si="85"/>
+        <v>-1</v>
+      </c>
+      <c r="AG65" s="8" t="e">
+        <f t="shared" si="85"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH65" s="8">
+        <f t="shared" si="85"/>
+        <v>5.218589751548941E-2</v>
+      </c>
+      <c r="AI65" s="8">
+        <f t="shared" si="85"/>
+        <v>-1</v>
+      </c>
+      <c r="AJ65" s="8" t="e">
+        <f t="shared" si="85"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK65" s="8" t="e">
+        <f t="shared" si="85"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO65" s="8" t="e">
+        <f>AO46/AN46-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP65" s="8" t="e">
+        <f t="shared" ref="AP65:AY65" si="86">AP46/AO46-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ65" s="8">
+        <f t="shared" si="86"/>
         <v>0.18880023055170292</v>
       </c>
-      <c r="N46" s="8">
-        <f t="shared" si="22"/>
+      <c r="AR65" s="8">
+        <f t="shared" si="86"/>
         <v>0.13617975485219924</v>
       </c>
-      <c r="O46" s="8">
-        <f t="shared" si="22"/>
+      <c r="AS65" s="8">
+        <f t="shared" si="86"/>
         <v>0.20380322447292265</v>
       </c>
-      <c r="P46" s="8">
-        <f t="shared" si="22"/>
+      <c r="AT65" s="8">
+        <f t="shared" si="86"/>
         <v>0.22801090038993266</v>
       </c>
-      <c r="Q46" s="8">
-        <f t="shared" si="22"/>
+      <c r="AU65" s="8">
+        <f t="shared" si="86"/>
         <v>0.23421586757475987</v>
       </c>
-      <c r="R46" s="8">
-        <f t="shared" si="22"/>
+      <c r="AV65" s="8">
+        <f t="shared" si="86"/>
         <v>0.18300089899794614</v>
       </c>
-      <c r="S46" s="8">
-        <f t="shared" si="22"/>
+      <c r="AW65" s="8">
+        <f t="shared" si="86"/>
         <v>0.12770532012826141</v>
       </c>
-      <c r="T46" s="8">
-        <f t="shared" si="22"/>
+      <c r="AX65" s="8">
+        <f t="shared" si="86"/>
         <v>0.41150076427049154</v>
       </c>
-      <c r="U46" s="8">
-        <f t="shared" si="22"/>
+      <c r="AY65" s="8">
+        <f t="shared" si="86"/>
         <v>9.7808156437157789E-2</v>
       </c>
-      <c r="V46" s="8">
-        <f>V27/U27-1</f>
+      <c r="AZ65" s="8">
+        <f>AZ46/AY46-1</f>
         <v>8.6827702272695095E-2</v>
       </c>
-      <c r="W46" s="8">
+      <c r="BA65" s="8">
         <v>0.17</v>
       </c>
-      <c r="X46" s="8">
+      <c r="BB65" s="8">
         <v>0.17</v>
       </c>
-      <c r="Y46" s="8">
+      <c r="BC65" s="8">
         <v>0.17</v>
       </c>
-      <c r="Z46" s="8">
+      <c r="BD65" s="8">
         <v>0.17</v>
       </c>
-      <c r="AA46" s="8">
+      <c r="BE65" s="8">
         <v>0.17</v>
       </c>
-      <c r="AB46" s="8">
+      <c r="BF65" s="8">
         <v>0.17</v>
       </c>
     </row>
-    <row r="47" spans="2:86" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="8" t="s">
+    <row r="66" spans="2:62" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="8" t="s">
         <v>1873</v>
       </c>
-      <c r="K47" s="8" t="e">
-        <f>K38/J38-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L47" s="8" t="e">
-        <f t="shared" ref="L47:U47" si="23">L38/K38-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M47" s="8">
-        <f t="shared" si="23"/>
+      <c r="E66" s="8" t="e">
+        <f>E57/D57-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F66" s="8" t="e">
+        <f t="shared" ref="F66:P66" si="87">F57/E57-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G66" s="8" t="e">
+        <f t="shared" si="87"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H66" s="8" t="e">
+        <f t="shared" si="87"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I66" s="8" t="e">
+        <f t="shared" si="87"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J66" s="8" t="e">
+        <f t="shared" si="87"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K66" s="8" t="e">
+        <f t="shared" si="87"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L66" s="8" t="e">
+        <f t="shared" si="87"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M66" s="8" t="e">
+        <f t="shared" si="87"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N66" s="8" t="e">
+        <f t="shared" si="87"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O66" s="8" t="e">
+        <f t="shared" si="87"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P66" s="8" t="e">
+        <f t="shared" si="87"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q66" s="8" t="e">
+        <f>Q57/P57-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R66" s="8" t="e">
+        <f t="shared" ref="R66:AK66" si="88">R57/Q57-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S66" s="8" t="e">
+        <f t="shared" si="88"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T66" s="8" t="e">
+        <f t="shared" si="88"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U66" s="8" t="e">
+        <f t="shared" si="88"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V66" s="8" t="e">
+        <f t="shared" si="88"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W66" s="8" t="e">
+        <f t="shared" si="88"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X66" s="8" t="e">
+        <f t="shared" si="88"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y66" s="8" t="e">
+        <f t="shared" si="88"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z66" s="8" t="e">
+        <f t="shared" si="88"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA66" s="8" t="e">
+        <f t="shared" si="88"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB66" s="8">
+        <f t="shared" si="88"/>
+        <v>-1</v>
+      </c>
+      <c r="AC66" s="8" t="e">
+        <f t="shared" si="88"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD66" s="8">
+        <f t="shared" si="88"/>
+        <v>0.2203840276393596</v>
+      </c>
+      <c r="AE66" s="8">
+        <f t="shared" si="88"/>
+        <v>7.1918554006968671E-2</v>
+      </c>
+      <c r="AF66" s="8">
+        <f t="shared" si="88"/>
+        <v>-1</v>
+      </c>
+      <c r="AG66" s="8" t="e">
+        <f t="shared" si="88"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH66" s="8">
+        <f t="shared" si="88"/>
+        <v>-1.8172597413574909E-3</v>
+      </c>
+      <c r="AI66" s="8">
+        <f t="shared" si="88"/>
+        <v>-1</v>
+      </c>
+      <c r="AJ66" s="8" t="e">
+        <f t="shared" si="88"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK66" s="8" t="e">
+        <f t="shared" si="88"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO66" s="8" t="e">
+        <f>AO57/AN57-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP66" s="8" t="e">
+        <f t="shared" ref="AP66:AY66" si="89">AP57/AO57-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ66" s="8">
+        <f t="shared" si="89"/>
         <v>3.4954407294832901E-2</v>
       </c>
-      <c r="N47" s="8">
-        <f t="shared" si="23"/>
+      <c r="AR66" s="8">
+        <f t="shared" si="89"/>
         <v>0.20029368575624074</v>
       </c>
-      <c r="O47" s="8">
-        <f t="shared" si="23"/>
+      <c r="AS66" s="8">
+        <f t="shared" si="89"/>
         <v>0.1914607291411794</v>
       </c>
-      <c r="P47" s="8">
-        <f t="shared" si="23"/>
+      <c r="AT66" s="8">
+        <f t="shared" si="89"/>
         <v>-0.34993325803470587</v>
       </c>
-      <c r="Q47" s="8">
-        <f t="shared" si="23"/>
+      <c r="AU66" s="8">
+        <f t="shared" si="89"/>
         <v>1.4274206286526616</v>
       </c>
-      <c r="R47" s="8">
-        <f t="shared" si="23"/>
+      <c r="AV66" s="8">
+        <f t="shared" si="89"/>
         <v>0.11735424258198845</v>
       </c>
-      <c r="S47" s="8">
-        <f t="shared" si="23"/>
+      <c r="AW66" s="8">
+        <f t="shared" si="89"/>
         <v>0.17255335876306677</v>
       </c>
-      <c r="T47" s="8">
-        <f t="shared" si="23"/>
+      <c r="AX66" s="8">
+        <f t="shared" si="89"/>
         <v>0.88812734361419454</v>
       </c>
-      <c r="U47" s="8">
-        <f t="shared" si="23"/>
+      <c r="AY66" s="8">
+        <f t="shared" si="89"/>
         <v>-0.21123722594136751</v>
       </c>
-      <c r="V47" s="8">
-        <f>V38/U38-1</f>
+      <c r="AZ66" s="8">
+        <f>AZ57/AY57-1</f>
         <v>0.23049089575135073</v>
       </c>
     </row>
-    <row r="49" spans="2:32" s="45" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="45" t="s">
+    <row r="68" spans="2:62" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="45" t="s">
         <v>1874</v>
       </c>
     </row>
-    <row r="50" spans="2:32" s="95" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="95" t="s">
+    <row r="69" spans="2:62" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="K50" s="95" t="e">
-        <f>K29/K27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L50" s="95">
-        <f t="shared" ref="L50:U50" si="24">L29/L27</f>
+      <c r="E69" s="8" t="e">
+        <f>E48/E46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F69" s="8" t="e">
+        <f t="shared" ref="F69:P69" si="90">F48/F46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G69" s="8" t="e">
+        <f t="shared" si="90"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H69" s="8" t="e">
+        <f t="shared" si="90"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I69" s="8" t="e">
+        <f t="shared" si="90"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J69" s="8" t="e">
+        <f t="shared" si="90"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K69" s="8" t="e">
+        <f t="shared" si="90"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L69" s="8" t="e">
+        <f t="shared" si="90"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M69" s="8" t="e">
+        <f t="shared" si="90"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N69" s="8" t="e">
+        <f t="shared" si="90"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O69" s="8" t="e">
+        <f t="shared" si="90"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P69" s="8" t="e">
+        <f t="shared" si="90"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q69" s="8" t="e">
+        <f>Q48/Q46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R69" s="8" t="e">
+        <f t="shared" ref="R69:AK69" si="91">R48/R46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S69" s="8" t="e">
+        <f t="shared" si="91"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T69" s="8" t="e">
+        <f t="shared" si="91"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U69" s="8" t="e">
+        <f t="shared" si="91"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V69" s="8" t="e">
+        <f t="shared" si="91"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W69" s="8" t="e">
+        <f t="shared" si="91"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X69" s="8" t="e">
+        <f t="shared" si="91"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y69" s="8" t="e">
+        <f t="shared" si="91"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z69" s="8" t="e">
+        <f t="shared" si="91"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA69" s="8">
+        <f t="shared" si="91"/>
+        <v>0.54903606785156023</v>
+      </c>
+      <c r="AB69" s="8" t="e">
+        <f t="shared" si="91"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC69" s="8">
+        <f t="shared" si="91"/>
+        <v>0.56135096794531936</v>
+      </c>
+      <c r="AD69" s="8">
+        <f t="shared" si="91"/>
+        <v>0.5721945204010509</v>
+      </c>
+      <c r="AE69" s="8">
+        <f t="shared" si="91"/>
+        <v>0.56672708069836886</v>
+      </c>
+      <c r="AF69" s="8" t="e">
+        <f t="shared" si="91"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG69" s="8">
+        <f t="shared" si="91"/>
+        <v>0.58142018152696207</v>
+      </c>
+      <c r="AH69" s="8">
+        <f t="shared" si="91"/>
+        <v>0.58099879634655782</v>
+      </c>
+      <c r="AI69" s="8" t="e">
+        <f t="shared" si="91"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ69" s="8" t="e">
+        <f t="shared" si="91"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK69" s="8" t="e">
+        <f t="shared" si="91"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO69" s="8" t="e">
+        <f>AO48/AO46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP69" s="8">
+        <f t="shared" ref="AP69:AY69" si="92">AP48/AP46</f>
         <v>0.60386534339595455</v>
       </c>
-      <c r="M50" s="95">
-        <f t="shared" si="24"/>
+      <c r="AQ69" s="8">
+        <f t="shared" si="92"/>
         <v>0.6107483219951213</v>
       </c>
-      <c r="N50" s="95">
-        <f t="shared" si="24"/>
+      <c r="AR69" s="8">
+        <f t="shared" si="92"/>
         <v>0.62442491565429592</v>
       </c>
-      <c r="O50" s="95">
-        <f t="shared" si="24"/>
+      <c r="AS69" s="8">
+        <f t="shared" si="92"/>
         <v>0.61075416518964909</v>
       </c>
-      <c r="P50" s="95">
-        <f t="shared" si="24"/>
+      <c r="AT69" s="8">
+        <f t="shared" si="92"/>
         <v>0.58880519597672631</v>
       </c>
-      <c r="Q50" s="95">
-        <f t="shared" si="24"/>
+      <c r="AU69" s="8">
+        <f t="shared" si="92"/>
         <v>0.5647607422945643</v>
       </c>
-      <c r="R50" s="95">
-        <f t="shared" si="24"/>
+      <c r="AV69" s="8">
+        <f t="shared" si="92"/>
         <v>0.5558054331910266</v>
       </c>
-      <c r="S50" s="95">
-        <f t="shared" si="24"/>
+      <c r="AW69" s="8">
+        <f t="shared" si="92"/>
         <v>0.53578374706207854</v>
       </c>
-      <c r="T50" s="95">
-        <f t="shared" si="24"/>
+      <c r="AX69" s="8">
+        <f t="shared" si="92"/>
         <v>0.5693980290098084</v>
       </c>
-      <c r="U50" s="95">
-        <f t="shared" si="24"/>
+      <c r="AY69" s="8">
+        <f t="shared" si="92"/>
         <v>0.55379442503783116</v>
       </c>
-      <c r="V50" s="95">
-        <f>V29/V27</f>
+      <c r="AZ69" s="8">
+        <f>AZ48/AZ46</f>
         <v>0.56625047984020505</v>
       </c>
-      <c r="W50" s="95">
+      <c r="BA69" s="8">
         <v>0.5</v>
       </c>
-      <c r="X50" s="95">
+      <c r="BB69" s="8">
         <v>0.5</v>
       </c>
-      <c r="Y50" s="95">
+      <c r="BC69" s="8">
         <v>0.5</v>
       </c>
-      <c r="Z50" s="95">
+      <c r="BD69" s="8">
         <v>0.5</v>
       </c>
-      <c r="AA50" s="95">
+      <c r="BE69" s="8">
         <v>0.5</v>
       </c>
-      <c r="AB50" s="95">
+      <c r="BF69" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="2:32" s="95" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="95" t="s">
+    <row r="70" spans="2:62" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="8" t="s">
         <v>1875</v>
       </c>
-      <c r="K51" s="95" t="e">
-        <f>K34/K27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L51" s="95">
-        <f t="shared" ref="L51:U51" si="25">L34/L27</f>
+      <c r="E70" s="8" t="e">
+        <f>E53/E46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F70" s="8" t="e">
+        <f t="shared" ref="F70:P70" si="93">F53/F46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G70" s="8" t="e">
+        <f t="shared" si="93"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H70" s="8" t="e">
+        <f t="shared" si="93"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I70" s="8" t="e">
+        <f t="shared" si="93"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J70" s="8" t="e">
+        <f t="shared" si="93"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K70" s="8" t="e">
+        <f t="shared" si="93"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L70" s="8" t="e">
+        <f t="shared" si="93"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M70" s="8" t="e">
+        <f t="shared" si="93"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N70" s="8" t="e">
+        <f t="shared" si="93"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O70" s="8" t="e">
+        <f t="shared" si="93"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P70" s="8" t="e">
+        <f t="shared" si="93"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q70" s="8" t="e">
+        <f>Q53/Q46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R70" s="8" t="e">
+        <f t="shared" ref="R70:AK70" si="94">R53/R46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S70" s="8" t="e">
+        <f t="shared" si="94"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T70" s="8" t="e">
+        <f t="shared" si="94"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U70" s="8" t="e">
+        <f t="shared" si="94"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V70" s="8" t="e">
+        <f t="shared" si="94"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W70" s="8" t="e">
+        <f t="shared" si="94"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X70" s="8" t="e">
+        <f t="shared" si="94"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y70" s="8" t="e">
+        <f t="shared" si="94"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z70" s="8" t="e">
+        <f t="shared" si="94"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA70" s="8">
+        <f t="shared" si="94"/>
+        <v>0.24800266311584554</v>
+      </c>
+      <c r="AB70" s="8" t="e">
+        <f t="shared" si="94"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC70" s="8">
+        <f t="shared" si="94"/>
+        <v>0.24954504420594092</v>
+      </c>
+      <c r="AD70" s="8">
+        <f t="shared" si="94"/>
+        <v>0.29271888906761029</v>
+      </c>
+      <c r="AE70" s="8">
+        <f t="shared" si="94"/>
+        <v>0.27829136948613303</v>
+      </c>
+      <c r="AF70" s="8" t="e">
+        <f t="shared" si="94"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG70" s="8">
+        <f t="shared" si="94"/>
+        <v>0.31626913669154072</v>
+      </c>
+      <c r="AH70" s="8">
+        <f t="shared" si="94"/>
+        <v>0.32362936914398999</v>
+      </c>
+      <c r="AI70" s="8" t="e">
+        <f t="shared" si="94"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ70" s="8" t="e">
+        <f t="shared" si="94"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK70" s="8" t="e">
+        <f t="shared" si="94"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO70" s="8" t="e">
+        <f>AO53/AO46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP70" s="8">
+        <f t="shared" ref="AP70:AY70" si="95">AP53/AP46</f>
         <v>0.27743655325203986</v>
       </c>
-      <c r="M51" s="95">
-        <f t="shared" si="25"/>
+      <c r="AQ70" s="8">
+        <f t="shared" si="95"/>
         <v>0.24993560703625703</v>
       </c>
-      <c r="N51" s="95">
-        <f t="shared" si="25"/>
+      <c r="AR70" s="8">
+        <f t="shared" si="95"/>
         <v>0.25817119844243824</v>
       </c>
-      <c r="O51" s="95">
-        <f t="shared" si="25"/>
+      <c r="AS70" s="8">
+        <f t="shared" si="95"/>
         <v>0.26271712158808935</v>
       </c>
-      <c r="P51" s="95">
-        <f t="shared" si="25"/>
+      <c r="AT70" s="8">
+        <f t="shared" si="95"/>
         <v>0.26082720671146992</v>
       </c>
-      <c r="Q51" s="95">
-        <f t="shared" si="25"/>
+      <c r="AU70" s="8">
+        <f t="shared" si="95"/>
         <v>0.23823445574079624</v>
       </c>
-      <c r="R51" s="95">
-        <f t="shared" si="25"/>
+      <c r="AV70" s="8">
+        <f t="shared" si="95"/>
         <v>0.22197371754079218</v>
       </c>
-      <c r="S51" s="95">
-        <f t="shared" si="25"/>
+      <c r="AW70" s="8">
+        <f t="shared" si="95"/>
         <v>0.22585151785763202</v>
       </c>
-      <c r="T51" s="95">
-        <f t="shared" si="25"/>
+      <c r="AX70" s="8">
+        <f t="shared" si="95"/>
         <v>0.3055228868524319</v>
       </c>
-      <c r="U51" s="95">
-        <f t="shared" si="25"/>
+      <c r="AY70" s="8">
+        <f t="shared" si="95"/>
         <v>0.26461270842467011</v>
       </c>
-      <c r="V51" s="95">
-        <f>V34/V27</f>
+      <c r="AZ70" s="8">
+        <f>AZ53/AZ46</f>
         <v>0.27421810445226646</v>
       </c>
     </row>
-    <row r="52" spans="2:32" s="95" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="95" t="s">
+    <row r="71" spans="2:62" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="8" t="s">
         <v>1876</v>
       </c>
-      <c r="K52" s="95" t="e">
-        <f>K38/K27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L52" s="95">
-        <f t="shared" ref="L52:U52" si="26">L38/L27</f>
+      <c r="E71" s="8" t="e">
+        <f>E57/E46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F71" s="8" t="e">
+        <f t="shared" ref="F71:P71" si="96">F57/F46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G71" s="8" t="e">
+        <f t="shared" si="96"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H71" s="8" t="e">
+        <f t="shared" si="96"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I71" s="8" t="e">
+        <f t="shared" si="96"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J71" s="8" t="e">
+        <f t="shared" si="96"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K71" s="8" t="e">
+        <f t="shared" si="96"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L71" s="8" t="e">
+        <f t="shared" si="96"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M71" s="8" t="e">
+        <f t="shared" si="96"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N71" s="8" t="e">
+        <f t="shared" si="96"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O71" s="8" t="e">
+        <f t="shared" si="96"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P71" s="8" t="e">
+        <f t="shared" si="96"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q71" s="8" t="e">
+        <f>Q57/Q46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R71" s="8" t="e">
+        <f t="shared" ref="R71:AK71" si="97">R57/R46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S71" s="8" t="e">
+        <f t="shared" si="97"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T71" s="8" t="e">
+        <f t="shared" si="97"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U71" s="8" t="e">
+        <f t="shared" si="97"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V71" s="8" t="e">
+        <f t="shared" si="97"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W71" s="8" t="e">
+        <f t="shared" si="97"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X71" s="8" t="e">
+        <f t="shared" si="97"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y71" s="8" t="e">
+        <f t="shared" si="97"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z71" s="8" t="e">
+        <f t="shared" si="97"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA71" s="8">
+        <f t="shared" si="97"/>
+        <v>0.20132576854049672</v>
+      </c>
+      <c r="AB71" s="8" t="e">
+        <f t="shared" si="97"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC71" s="8">
+        <f t="shared" si="97"/>
+        <v>0.21567054035851949</v>
+      </c>
+      <c r="AD71" s="8">
+        <f t="shared" si="97"/>
+        <v>0.2462066377137955</v>
+      </c>
+      <c r="AE71" s="8">
+        <f t="shared" si="97"/>
+        <v>0.25672486406842865</v>
+      </c>
+      <c r="AF71" s="8" t="e">
+        <f t="shared" si="97"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG71" s="8">
+        <f t="shared" si="97"/>
+        <v>0.29379555246526529</v>
+      </c>
+      <c r="AH71" s="8">
+        <f t="shared" si="97"/>
+        <v>0.27871657501593072</v>
+      </c>
+      <c r="AI71" s="8" t="e">
+        <f t="shared" si="97"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ71" s="8" t="e">
+        <f t="shared" si="97"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK71" s="8" t="e">
+        <f t="shared" si="97"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO71" s="8" t="e">
+        <f>AO57/AO46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP71" s="8">
+        <f t="shared" ref="AP71:AY71" si="98">AP57/AP46</f>
         <v>0.23703596966804158</v>
       </c>
-      <c r="M52" s="95">
-        <f t="shared" si="26"/>
+      <c r="AQ71" s="8">
+        <f t="shared" si="98"/>
         <v>0.20636050968924713</v>
       </c>
-      <c r="N52" s="95">
-        <f t="shared" si="26"/>
+      <c r="AR71" s="8">
+        <f t="shared" si="98"/>
         <v>0.21800530744509194</v>
       </c>
-      <c r="O52" s="95">
-        <f t="shared" si="26"/>
+      <c r="AS71" s="8">
+        <f t="shared" si="98"/>
         <v>0.2157701169797944</v>
       </c>
-      <c r="P52" s="95">
-        <f t="shared" si="26"/>
+      <c r="AT71" s="8">
+        <f t="shared" si="98"/>
         <v>0.11422128005051645</v>
       </c>
-      <c r="Q52" s="95">
-        <f t="shared" si="26"/>
+      <c r="AU71" s="8">
+        <f t="shared" si="98"/>
         <v>0.22464716157843576</v>
       </c>
-      <c r="R52" s="95">
-        <f t="shared" si="26"/>
+      <c r="AV71" s="8">
+        <f t="shared" si="98"/>
         <v>0.21218112284300339</v>
       </c>
-      <c r="S52" s="95">
-        <f t="shared" si="26"/>
+      <c r="AW71" s="8">
+        <f t="shared" si="98"/>
         <v>0.22061941520980458</v>
       </c>
-      <c r="T52" s="95">
-        <f t="shared" si="26"/>
+      <c r="AX71" s="8">
+        <f t="shared" si="98"/>
         <v>0.29511677282377918</v>
       </c>
-      <c r="U52" s="95">
-        <f t="shared" si="26"/>
+      <c r="AY71" s="8">
+        <f t="shared" si="98"/>
         <v>0.21203807153261961</v>
       </c>
-      <c r="V52" s="95">
-        <f>V38/V27</f>
+      <c r="AZ71" s="8">
+        <f>AZ57/AZ46</f>
         <v>0.24006649446638517</v>
       </c>
     </row>
-    <row r="53" spans="2:32" s="95" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="95" t="s">
+    <row r="72" spans="2:62" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="8" t="s">
         <v>1877</v>
       </c>
-      <c r="K53" s="95" t="e">
-        <f>K37/K36</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L53" s="95">
-        <f t="shared" ref="L53:U53" si="27">L37/L36</f>
+      <c r="E72" s="8" t="e">
+        <f>E56/E55</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F72" s="8" t="e">
+        <f t="shared" ref="F72:P72" si="99">F56/F55</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G72" s="8" t="e">
+        <f t="shared" si="99"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H72" s="8" t="e">
+        <f t="shared" si="99"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I72" s="8" t="e">
+        <f t="shared" si="99"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J72" s="8" t="e">
+        <f t="shared" si="99"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K72" s="8" t="e">
+        <f t="shared" si="99"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L72" s="8" t="e">
+        <f t="shared" si="99"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M72" s="8" t="e">
+        <f t="shared" si="99"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N72" s="8" t="e">
+        <f t="shared" si="99"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O72" s="8" t="e">
+        <f t="shared" si="99"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P72" s="8" t="e">
+        <f t="shared" si="99"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q72" s="8" t="e">
+        <f>Q56/Q55</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R72" s="8" t="e">
+        <f t="shared" ref="R72:AK72" si="100">R56/R55</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S72" s="8" t="e">
+        <f t="shared" si="100"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T72" s="8" t="e">
+        <f t="shared" si="100"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U72" s="8" t="e">
+        <f t="shared" si="100"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V72" s="8" t="e">
+        <f t="shared" si="100"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W72" s="8" t="e">
+        <f t="shared" si="100"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X72" s="8" t="e">
+        <f t="shared" si="100"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y72" s="8" t="e">
+        <f t="shared" si="100"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z72" s="8" t="e">
+        <f t="shared" si="100"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA72" s="8">
+        <f t="shared" si="100"/>
+        <v>0.14310355448777182</v>
+      </c>
+      <c r="AB72" s="8" t="e">
+        <f t="shared" si="100"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC72" s="8">
+        <f t="shared" si="100"/>
+        <v>0.17324910738808019</v>
+      </c>
+      <c r="AD72" s="8">
+        <f t="shared" si="100"/>
+        <v>0.16139341642697347</v>
+      </c>
+      <c r="AE72" s="8">
+        <f t="shared" si="100"/>
+        <v>7.1142142756050381E-2</v>
+      </c>
+      <c r="AF72" s="8" t="e">
+        <f t="shared" si="100"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG72" s="8">
+        <f t="shared" si="100"/>
+        <v>0.16432986049796927</v>
+      </c>
+      <c r="AH72" s="8">
+        <f t="shared" si="100"/>
+        <v>0.14271714275343908</v>
+      </c>
+      <c r="AI72" s="8" t="e">
+        <f t="shared" si="100"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ72" s="8" t="e">
+        <f t="shared" si="100"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK72" s="8" t="e">
+        <f t="shared" si="100"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO72" s="8" t="e">
+        <f>AO56/AO55</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP72" s="8">
+        <f t="shared" ref="AP72:AY72" si="101">AP56/AP55</f>
         <v>0.17227498584816656</v>
       </c>
-      <c r="M53" s="95">
-        <f t="shared" si="27"/>
+      <c r="AQ72" s="8">
+        <f t="shared" si="101"/>
         <v>0.21084651486181122</v>
       </c>
-      <c r="N53" s="95">
-        <f t="shared" si="27"/>
+      <c r="AR72" s="8">
+        <f t="shared" si="101"/>
         <v>0.16808304920869166</v>
       </c>
-      <c r="O53" s="95">
-        <f t="shared" si="27"/>
+      <c r="AS72" s="8">
+        <f t="shared" si="101"/>
         <v>0.19345755693581781</v>
       </c>
-      <c r="P53" s="95">
-        <f t="shared" si="27"/>
+      <c r="AT72" s="8">
+        <f t="shared" si="101"/>
         <v>0.53436546169970212</v>
       </c>
-      <c r="Q53" s="95">
-        <f t="shared" si="27"/>
+      <c r="AU72" s="8">
+        <f t="shared" si="101"/>
         <v>0.1196402486179933</v>
       </c>
-      <c r="R53" s="95">
-        <f t="shared" si="27"/>
+      <c r="AV72" s="8">
+        <f t="shared" si="101"/>
         <v>0.13329968454258675</v>
       </c>
-      <c r="S53" s="95">
-        <f t="shared" si="27"/>
+      <c r="AW72" s="8">
+        <f t="shared" si="101"/>
         <v>0.16249324071378063</v>
       </c>
-      <c r="T53" s="95">
-        <f t="shared" si="27"/>
+      <c r="AX72" s="8">
+        <f t="shared" si="101"/>
         <v>0.16202305640663919</v>
       </c>
-      <c r="U53" s="95">
-        <f t="shared" si="27"/>
+      <c r="AY72" s="8">
+        <f t="shared" si="101"/>
         <v>0.1592081650964558</v>
       </c>
-      <c r="V53" s="95">
-        <f>V37/V36</f>
+      <c r="AZ72" s="8">
+        <f>AZ56/AZ55</f>
         <v>0.13908559562280529</v>
       </c>
-      <c r="W53" s="95">
+      <c r="BA72" s="8">
         <v>0.2</v>
       </c>
-      <c r="X53" s="95">
+      <c r="BB72" s="8">
         <v>0.2</v>
       </c>
-      <c r="Y53" s="95">
+      <c r="BC72" s="8">
         <v>0.2</v>
       </c>
-      <c r="Z53" s="95">
+      <c r="BD72" s="8">
         <v>0.2</v>
       </c>
-      <c r="AA53" s="95">
+      <c r="BE72" s="8">
         <v>0.2</v>
       </c>
-      <c r="AB53" s="95">
+      <c r="BF72" s="8">
         <v>0.2</v>
       </c>
     </row>
-    <row r="55" spans="2:32" s="45" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="45" t="s">
+    <row r="74" spans="2:62" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="45" t="s">
         <v>1878</v>
       </c>
     </row>
-    <row r="56" spans="2:32" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="8" t="s">
+    <row r="75" spans="2:62" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="K56" s="8">
-        <f>K30/$V$27</f>
-        <v>0</v>
-      </c>
-      <c r="L56" s="8">
-        <f t="shared" ref="L56:U56" si="28">L30/$V$27</f>
+      <c r="E75" s="8">
+        <f>E49/$AZ$46</f>
+        <v>0</v>
+      </c>
+      <c r="F75" s="8">
+        <f t="shared" ref="F75:P75" si="102">F49/$AZ$46</f>
+        <v>0</v>
+      </c>
+      <c r="G75" s="8">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="H75" s="8">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="I75" s="8">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="8">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="K75" s="8">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="L75" s="8">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="M75" s="8">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="N75" s="8">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="O75" s="8">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="P75" s="8">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="Q75" s="8">
+        <f>Q49/$AZ$46</f>
+        <v>0</v>
+      </c>
+      <c r="R75" s="8">
+        <f t="shared" ref="R75:AK75" si="103">R49/$AZ$46</f>
+        <v>0</v>
+      </c>
+      <c r="S75" s="8">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="T75" s="8">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="U75" s="8">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="V75" s="8">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="W75" s="8">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="X75" s="8">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="Y75" s="8">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="Z75" s="8">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="AA75" s="8">
+        <f t="shared" si="103"/>
+        <v>3.3419650351015309E-2</v>
+      </c>
+      <c r="AB75" s="8">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="AC75" s="8">
+        <f t="shared" si="103"/>
+        <v>3.7307169300636968E-2</v>
+      </c>
+      <c r="AD75" s="8">
+        <f t="shared" si="103"/>
+        <v>3.4444393839827711E-2</v>
+      </c>
+      <c r="AE75" s="8">
+        <f t="shared" si="103"/>
+        <v>3.6624006974762029E-2</v>
+      </c>
+      <c r="AF75" s="8">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="AG75" s="8">
+        <f t="shared" si="103"/>
+        <v>3.8722291261377904E-2</v>
+      </c>
+      <c r="AH75" s="8">
+        <f t="shared" si="103"/>
+        <v>3.8582405642270182E-2</v>
+      </c>
+      <c r="AI75" s="8">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="AJ75" s="8">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="AK75" s="8">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="AO75" s="8">
+        <f>AO49/$AZ$46</f>
+        <v>0</v>
+      </c>
+      <c r="AP75" s="8">
+        <f t="shared" ref="AP75:AY75" si="104">AP49/$AZ$46</f>
         <v>2.3217759617949602E-2</v>
       </c>
-      <c r="M56" s="8">
-        <f t="shared" si="28"/>
+      <c r="AQ75" s="8">
+        <f t="shared" si="104"/>
         <v>3.1985009466677941E-2</v>
       </c>
-      <c r="N56" s="8">
-        <f t="shared" si="28"/>
+      <c r="AR75" s="8">
+        <f t="shared" si="104"/>
         <v>3.9955236601885526E-2</v>
       </c>
-      <c r="O56" s="8">
-        <f t="shared" si="28"/>
+      <c r="AS75" s="8">
+        <f t="shared" si="104"/>
         <v>4.5374991053826683E-2</v>
       </c>
-      <c r="P56" s="8">
-        <f t="shared" si="28"/>
+      <c r="AT75" s="8">
+        <f t="shared" si="104"/>
         <v>5.4083684131765744E-2</v>
       </c>
-      <c r="Q56" s="8">
-        <f t="shared" si="28"/>
+      <c r="AU75" s="8">
+        <f t="shared" si="104"/>
         <v>6.9679304085310714E-2</v>
       </c>
-      <c r="R56" s="8">
-        <f t="shared" si="28"/>
+      <c r="AV75" s="8">
+        <f t="shared" si="104"/>
         <v>8.4640559021971803E-2</v>
       </c>
-      <c r="S56" s="8">
-        <f t="shared" si="28"/>
+      <c r="AW75" s="8">
+        <f t="shared" si="104"/>
         <v>8.9699213387379059E-2</v>
       </c>
-      <c r="T56" s="8">
-        <f t="shared" si="28"/>
+      <c r="AX75" s="8">
+        <f t="shared" si="104"/>
         <v>0.10267604442507011</v>
       </c>
-      <c r="U56" s="8">
-        <f t="shared" si="28"/>
+      <c r="AY75" s="8">
+        <f t="shared" si="104"/>
         <v>0.12849958034314268</v>
       </c>
-      <c r="V56" s="8">
-        <f>V30/$V$27</f>
+      <c r="AZ75" s="8">
+        <f>AZ49/$AZ$46</f>
         <v>0.14778102370247956</v>
       </c>
-      <c r="W56" s="8">
+      <c r="BA75" s="8">
         <v>0.1</v>
       </c>
-      <c r="X56" s="8">
+      <c r="BB75" s="8">
         <v>0.1</v>
       </c>
-      <c r="Y56" s="8">
+      <c r="BC75" s="8">
         <v>0.1</v>
       </c>
-      <c r="Z56" s="8">
+      <c r="BD75" s="8">
         <v>0.1</v>
       </c>
-      <c r="AA56" s="8">
+      <c r="BE75" s="8">
         <v>0.1</v>
       </c>
-      <c r="AB56" s="8">
+      <c r="BF75" s="8">
         <v>0.1</v>
       </c>
     </row>
-    <row r="57" spans="2:32" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="8" t="s">
+    <row r="76" spans="2:62" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="K57" s="8">
-        <f>K31/$V$27</f>
-        <v>0</v>
-      </c>
-      <c r="L57" s="8">
-        <f t="shared" ref="L57:U57" si="29">L31/$V$27</f>
+      <c r="E76" s="8">
+        <f>E50/$AZ$46</f>
+        <v>0</v>
+      </c>
+      <c r="F76" s="8">
+        <f t="shared" ref="F76:P76" si="105">F50/$AZ$46</f>
+        <v>0</v>
+      </c>
+      <c r="G76" s="8">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="H76" s="8">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="I76" s="8">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="8">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="K76" s="8">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="L76" s="8">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="M76" s="8">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="N76" s="8">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="O76" s="8">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="P76" s="8">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="Q76" s="8">
+        <f>Q50/$AZ$46</f>
+        <v>0</v>
+      </c>
+      <c r="R76" s="8">
+        <f t="shared" ref="R76:AK76" si="106">R50/$AZ$46</f>
+        <v>0</v>
+      </c>
+      <c r="S76" s="8">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="T76" s="8">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="U76" s="8">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="V76" s="8">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="W76" s="8">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="X76" s="8">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="Y76" s="8">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="Z76" s="8">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="AA76" s="8">
+        <f t="shared" si="106"/>
+        <v>2.2541103599940143E-2</v>
+      </c>
+      <c r="AB76" s="8">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="AC76" s="8">
+        <f t="shared" si="106"/>
+        <v>2.1252854642575977E-2</v>
+      </c>
+      <c r="AD76" s="8">
+        <f t="shared" si="106"/>
+        <v>2.205963681789495E-2</v>
+      </c>
+      <c r="AE76" s="8">
+        <f t="shared" si="106"/>
+        <v>2.239471167296694E-2</v>
+      </c>
+      <c r="AF76" s="8">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="AG76" s="8">
+        <f t="shared" si="106"/>
+        <v>2.0904767171773034E-2</v>
+      </c>
+      <c r="AH76" s="8">
+        <f t="shared" si="106"/>
+        <v>2.2095421511155063E-2</v>
+      </c>
+      <c r="AI76" s="8">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="AJ76" s="8">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="AK76" s="8">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="AO76" s="8">
+        <f>AO50/$AZ$46</f>
+        <v>0</v>
+      </c>
+      <c r="AP76" s="8">
+        <f t="shared" ref="AP76:AY76" si="107">AP50/$AZ$46</f>
         <v>2.132117087516347E-2</v>
       </c>
-      <c r="M57" s="8">
-        <f t="shared" si="29"/>
+      <c r="AQ76" s="8">
+        <f t="shared" si="107"/>
         <v>2.6451394627090966E-2</v>
       </c>
-      <c r="N57" s="8">
-        <f t="shared" si="29"/>
+      <c r="AR76" s="8">
+        <f t="shared" si="107"/>
         <v>2.9431283629478781E-2</v>
       </c>
-      <c r="O57" s="8">
-        <f t="shared" si="29"/>
+      <c r="AS76" s="8">
+        <f t="shared" si="107"/>
         <v>3.4109318984755721E-2</v>
       </c>
-      <c r="P57" s="8">
-        <f t="shared" si="29"/>
+      <c r="AT76" s="8">
+        <f t="shared" si="107"/>
         <v>4.1942913654788319E-2</v>
       </c>
-      <c r="Q57" s="8">
-        <f t="shared" si="29"/>
+      <c r="AU76" s="8">
+        <f t="shared" si="107"/>
         <v>5.3133763183406311E-2</v>
       </c>
-      <c r="R57" s="8">
-        <f t="shared" si="29"/>
+      <c r="AV76" s="8">
+        <f t="shared" si="107"/>
         <v>6.0066234214070542E-2</v>
       </c>
-      <c r="S57" s="8">
-        <f t="shared" si="29"/>
+      <c r="AW76" s="8">
+        <f t="shared" si="107"/>
         <v>5.8381100476912369E-2</v>
       </c>
-      <c r="T57" s="8">
-        <f t="shared" si="29"/>
+      <c r="AX76" s="8">
+        <f t="shared" si="107"/>
         <v>7.4536262906888223E-2</v>
       </c>
-      <c r="U57" s="8">
-        <f t="shared" si="29"/>
+      <c r="AY76" s="8">
+        <f t="shared" si="107"/>
         <v>8.6426540531044843E-2</v>
       </c>
-      <c r="V57" s="8">
-        <f>V31/$V$27</f>
+      <c r="AZ76" s="8">
+        <f>AZ50/$AZ$46</f>
         <v>9.0818298340240869E-2</v>
       </c>
-      <c r="W57" s="8">
+      <c r="BA76" s="8">
         <v>0.06</v>
       </c>
-      <c r="X57" s="8">
+      <c r="BB76" s="8">
         <v>0.06</v>
       </c>
-      <c r="Y57" s="8">
+      <c r="BC76" s="8">
         <v>0.06</v>
       </c>
-      <c r="Z57" s="8">
+      <c r="BD76" s="8">
         <v>0.06</v>
       </c>
-      <c r="AA57" s="8">
+      <c r="BE76" s="8">
         <v>0.06</v>
       </c>
-      <c r="AB57" s="8">
+      <c r="BF76" s="8">
         <v>0.06</v>
       </c>
     </row>
-    <row r="58" spans="2:32" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="8" t="s">
+    <row r="77" spans="2:62" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="K58" s="8">
-        <f>K32/$V$27</f>
-        <v>0</v>
-      </c>
-      <c r="L58" s="8">
-        <f t="shared" ref="L58:U58" si="30">L32/$V$27</f>
+      <c r="E77" s="8">
+        <f>E51/$AZ$46</f>
+        <v>0</v>
+      </c>
+      <c r="F77" s="8">
+        <f t="shared" ref="F77:P77" si="108">F51/$AZ$46</f>
+        <v>0</v>
+      </c>
+      <c r="G77" s="8">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="H77" s="8">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="I77" s="8">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="8">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="K77" s="8">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="L77" s="8">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="M77" s="8">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="N77" s="8">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="O77" s="8">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="P77" s="8">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="Q77" s="8">
+        <f>Q51/$AZ$46</f>
+        <v>0</v>
+      </c>
+      <c r="R77" s="8">
+        <f t="shared" ref="R77:AK77" si="109">R51/$AZ$46</f>
+        <v>0</v>
+      </c>
+      <c r="S77" s="8">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="T77" s="8">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="U77" s="8">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="V77" s="8">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="W77" s="8">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="X77" s="8">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="Y77" s="8">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="Z77" s="8">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="AA77" s="8">
+        <f t="shared" si="109"/>
+        <v>1.1701594696057829E-2</v>
+      </c>
+      <c r="AB77" s="8">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="AC77" s="8">
+        <f t="shared" si="109"/>
+        <v>1.222860563316135E-2</v>
+      </c>
+      <c r="AD77" s="8">
+        <f t="shared" si="109"/>
+        <v>1.1324228839860244E-2</v>
+      </c>
+      <c r="AE77" s="8">
+        <f t="shared" si="109"/>
+        <v>1.2944299498363664E-2</v>
+      </c>
+      <c r="AF77" s="8">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="AG77" s="8">
+        <f t="shared" si="109"/>
+        <v>9.8440438004645508E-3</v>
+      </c>
+      <c r="AH77" s="8">
+        <f t="shared" si="109"/>
+        <v>1.0273460119585938E-2</v>
+      </c>
+      <c r="AI77" s="8">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="AJ77" s="8">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="AK77" s="8">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="AO77" s="8">
+        <f>AO51/$AZ$46</f>
+        <v>0</v>
+      </c>
+      <c r="AP77" s="8">
+        <f t="shared" ref="AP77:AY77" si="110">AP51/$AZ$46</f>
         <v>1.4417978229893881E-2</v>
       </c>
-      <c r="M58" s="8">
-        <f t="shared" si="30"/>
+      <c r="AQ77" s="8">
+        <f t="shared" si="110"/>
         <v>1.9034203660448806E-2</v>
       </c>
-      <c r="N58" s="8">
-        <f t="shared" si="30"/>
+      <c r="AR77" s="8">
+        <f t="shared" si="110"/>
         <v>1.9961352531279074E-2</v>
       </c>
-      <c r="O58" s="8">
-        <f t="shared" si="30"/>
+      <c r="AS77" s="8">
+        <f t="shared" si="110"/>
         <v>2.2723280220173458E-2</v>
       </c>
-      <c r="P58" s="8">
-        <f t="shared" si="30"/>
+      <c r="AT77" s="8">
+        <f t="shared" si="110"/>
         <v>2.2251572899926478E-2</v>
       </c>
-      <c r="Q58" s="8">
-        <f t="shared" si="30"/>
+      <c r="AU77" s="8">
+        <f t="shared" si="110"/>
         <v>2.2521584676343714E-2</v>
       </c>
-      <c r="R58" s="8">
-        <f t="shared" si="30"/>
+      <c r="AV77" s="8">
+        <f t="shared" si="110"/>
         <v>3.1070873211578625E-2</v>
       </c>
-      <c r="S58" s="8">
-        <f t="shared" si="30"/>
+      <c r="AW77" s="8">
+        <f t="shared" si="110"/>
         <v>3.5953857264618048E-2</v>
       </c>
-      <c r="T58" s="8">
-        <f t="shared" si="30"/>
+      <c r="AX77" s="8">
+        <f t="shared" si="110"/>
         <v>4.395010963128753E-2</v>
       </c>
-      <c r="U58" s="8">
-        <f t="shared" si="30"/>
+      <c r="AY77" s="8">
+        <f t="shared" si="110"/>
         <v>5.1152592438368998E-2</v>
       </c>
-      <c r="V58" s="8">
-        <f>V32/$V$27</f>
+      <c r="AZ77" s="8">
+        <f>AZ51/$AZ$46</f>
         <v>5.3433053345218189E-2</v>
       </c>
-      <c r="W58" s="8">
+      <c r="BA77" s="8">
         <v>0.03</v>
       </c>
-      <c r="X58" s="8">
+      <c r="BB77" s="8">
         <v>0.03</v>
       </c>
-      <c r="Y58" s="8">
+      <c r="BC77" s="8">
         <v>0.03</v>
       </c>
-      <c r="Z58" s="8">
+      <c r="BD77" s="8">
         <v>0.03</v>
       </c>
-      <c r="AA58" s="8">
+      <c r="BE77" s="8">
         <v>0.03</v>
       </c>
-      <c r="AB58" s="8">
+      <c r="BF77" s="8">
         <v>0.03</v>
       </c>
-      <c r="AC58" s="96" t="e" vm="4">
+      <c r="BG77" s="95" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="AD58" s="96"/>
-      <c r="AE58" s="96"/>
-      <c r="AF58" s="96"/>
-    </row>
-    <row r="59" spans="2:32" x14ac:dyDescent="0.35">
-      <c r="AC59" s="29" t="s">
+      <c r="BH77" s="95"/>
+      <c r="BI77" s="95"/>
+      <c r="BJ77" s="95"/>
+    </row>
+    <row r="78" spans="2:62" x14ac:dyDescent="0.35">
+      <c r="BG78" s="29" t="s">
         <v>936</v>
       </c>
-      <c r="AD59" s="8">
+      <c r="BH78" s="8">
         <v>0.01</v>
       </c>
     </row>
-    <row r="60" spans="2:32" x14ac:dyDescent="0.35">
-      <c r="AC60" s="29" t="s">
+    <row r="79" spans="2:62" x14ac:dyDescent="0.35">
+      <c r="BG79" s="29" t="s">
         <v>1879</v>
       </c>
-      <c r="AD60" s="8">
+      <c r="BH79" s="8">
         <v>0.1</v>
       </c>
     </row>
-    <row r="61" spans="2:32" x14ac:dyDescent="0.35">
-      <c r="AC61" s="29" t="s">
+    <row r="80" spans="2:62" x14ac:dyDescent="0.35">
+      <c r="BG80" s="29" t="s">
         <v>938</v>
       </c>
-      <c r="AD61" s="16">
-        <f>NPV(AD60,AC38:CH38)</f>
+      <c r="BH80" s="16">
+        <f>NPV(BH79,BG57:DL57)</f>
         <v>2178996.6753793103</v>
       </c>
     </row>
-    <row r="62" spans="2:32" x14ac:dyDescent="0.35">
-      <c r="AC62" s="29" t="s">
+    <row r="81" spans="59:60" x14ac:dyDescent="0.35">
+      <c r="BG81" s="29" t="s">
         <v>1880</v>
       </c>
-      <c r="AD62" s="16">
-        <f>AD61/V41</f>
+      <c r="BH81" s="16">
+        <f>BH80/AZ60</f>
         <v>175.25912292924556</v>
       </c>
     </row>
-    <row r="63" spans="2:32" x14ac:dyDescent="0.35">
-      <c r="AC63" s="29" t="s">
+    <row r="82" spans="59:60" x14ac:dyDescent="0.35">
+      <c r="BG82" s="29" t="s">
         <v>1881</v>
       </c>
-      <c r="AD63" s="36" cm="1">
-        <f t="array" ref="AD63">_FV(AC58,"Price")</f>
-        <v>167</v>
-      </c>
-    </row>
-    <row r="64" spans="2:32" x14ac:dyDescent="0.35">
-      <c r="AC64" s="29"/>
+      <c r="BH82" s="36" cm="1">
+        <f t="array" ref="BH82">_FV(BG77,"Price")</f>
+        <v>161.78</v>
+      </c>
+    </row>
+    <row r="83" spans="59:60" x14ac:dyDescent="0.35">
+      <c r="BG83" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
